--- a/data/final.xlsx
+++ b/data/final.xlsx
@@ -518,7 +518,7 @@
     <t xml:space="preserve">laypeople</t>
   </si>
   <si>
-    <t xml:space="preserve">workers</t>
+    <t xml:space="preserve">Workers</t>
   </si>
   <si>
     <t xml:space="preserve">adults</t>
@@ -560,7 +560,7 @@
     <t xml:space="preserve">range</t>
   </si>
   <si>
-    <t xml:space="preserve">clinical/patients</t>
+    <t xml:space="preserve">Clinical/Patients</t>
   </si>
   <si>
     <t xml:space="preserve">spain</t>
@@ -630,7 +630,7 @@
     <t xml:space="preserve">cancer ; cigarettes</t>
   </si>
   <si>
-    <t xml:space="preserve">smokers</t>
+    <t xml:space="preserve">Smokers</t>
   </si>
   <si>
     <t xml:space="preserve">usa</t>
@@ -998,7 +998,7 @@
     <t xml:space="preserve">0.5</t>
   </si>
   <si>
-    <t xml:space="preserve">students</t>
+    <t xml:space="preserve">Students</t>
   </si>
   <si>
     <t xml:space="preserve">china</t>
@@ -1079,7 +1079,7 @@
     <t xml:space="preserve">cancer ; other: fear and breast cancer</t>
   </si>
   <si>
-    <t xml:space="preserve">only female</t>
+    <t xml:space="preserve">Only Female</t>
   </si>
   <si>
     <t xml:space="preserve">58.2</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">Through the Second Wave: Analysis of the Psychological and Perceptive Changes in the Italian Population during the COVID-19 Pandemic</t>
   </si>
   <si>
-    <t xml:space="preserve">multiple samples</t>
+    <t xml:space="preserve">Multiple Samples</t>
   </si>
   <si>
     <t xml:space="preserve">italy</t>
@@ -3327,7 +3327,7 @@
     <t xml:space="preserve">0.72</t>
   </si>
   <si>
-    <t xml:space="preserve">pregnant women</t>
+    <t xml:space="preserve">Pregnant Women</t>
   </si>
   <si>
     <t xml:space="preserve">27.07</t>
@@ -3339,7 +3339,7 @@
     <t xml:space="preserve">A 2-Study Psychometric Evaluation of the Modified Dementia Worry Scale</t>
   </si>
   <si>
-    <t xml:space="preserve">0.09</t>
+    <t xml:space="preserve">0.90</t>
   </si>
   <si>
     <t xml:space="preserve">.78</t>

--- a/data/final.xlsx
+++ b/data/final.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="1095">
   <si>
     <t xml:space="preserve">author</t>
   </si>
@@ -518,7 +518,7 @@
     <t xml:space="preserve">laypeople</t>
   </si>
   <si>
-    <t xml:space="preserve">Workers</t>
+    <t xml:space="preserve">workers</t>
   </si>
   <si>
     <t xml:space="preserve">adults</t>
@@ -560,7 +560,7 @@
     <t xml:space="preserve">range</t>
   </si>
   <si>
-    <t xml:space="preserve">Clinical/Patients</t>
+    <t xml:space="preserve">clinical/patients</t>
   </si>
   <si>
     <t xml:space="preserve">spain</t>
@@ -630,7 +630,7 @@
     <t xml:space="preserve">cancer ; cigarettes</t>
   </si>
   <si>
-    <t xml:space="preserve">Smokers</t>
+    <t xml:space="preserve">smokers</t>
   </si>
   <si>
     <t xml:space="preserve">usa</t>
@@ -929,9 +929,6 @@
     <t xml:space="preserve">cigarettes</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.6188</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grazioli</t>
   </si>
   <si>
@@ -998,7 +995,7 @@
     <t xml:space="preserve">0.5</t>
   </si>
   <si>
-    <t xml:space="preserve">Students</t>
+    <t xml:space="preserve">students</t>
   </si>
   <si>
     <t xml:space="preserve">china</t>
@@ -1079,7 +1076,7 @@
     <t xml:space="preserve">cancer ; other: fear and breast cancer</t>
   </si>
   <si>
-    <t xml:space="preserve">Only Female</t>
+    <t xml:space="preserve">only female</t>
   </si>
   <si>
     <t xml:space="preserve">58.2</t>
@@ -1098,9 +1095,6 @@
     <t xml:space="preserve">financial; nuclear power accidents ; other: terrorism</t>
   </si>
   <si>
-    <t xml:space="preserve">0.815</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cuadrado</t>
   </si>
   <si>
@@ -1552,10 +1546,8 @@
     <t xml:space="preserve">Examining "intact" tourism behaviour in South Korea during the COVID-19 pandemic: a two-wave longitudinal study (March and September 2020)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.224</t>
+    <t xml:space="preserve">.295
+</t>
   </si>
   <si>
     <t xml:space="preserve">.224</t>
@@ -1760,7 +1752,7 @@
     <t xml:space="preserve">Through the Second Wave: Analysis of the Psychological and Perceptive Changes in the Italian Population during the COVID-19 Pandemic</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiple Samples</t>
+    <t xml:space="preserve">multiple samples</t>
   </si>
   <si>
     <t xml:space="preserve">italy</t>
@@ -2918,6 +2910,9 @@
     <t xml:space="preserve">health; other: questionnaire</t>
   </si>
   <si>
+    <t xml:space="preserve">0.815</t>
+  </si>
+  <si>
     <t xml:space="preserve">Murakami</t>
   </si>
   <si>
@@ -2952,15 +2947,6 @@
   </si>
   <si>
     <t xml:space="preserve">health catastrophe; other: preventive health behavior during pandemic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.61</t>
   </si>
   <si>
     <t xml:space="preserve">usa, china</t>
@@ -3056,6 +3042,9 @@
     <t xml:space="preserve">-0.2666</t>
   </si>
   <si>
+    <t xml:space="preserve">-0.6188</t>
+  </si>
+  <si>
     <t xml:space="preserve">33.3</t>
   </si>
   <si>
@@ -3199,6 +3188,9 @@
   </si>
   <si>
     <t xml:space="preserve">The relationship between adolescent risk perception and emotions during the COVID‑19: a short‑term longitudinal study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57</t>
   </si>
   <si>
     <t xml:space="preserve">0.46</t>
@@ -3327,7 +3319,7 @@
     <t xml:space="preserve">0.72</t>
   </si>
   <si>
-    <t xml:space="preserve">Pregnant Women</t>
+    <t xml:space="preserve">pregnant women</t>
   </si>
   <si>
     <t xml:space="preserve">27.07</t>
@@ -10354,9 +10346,7 @@
       <c r="BI28"/>
       <c r="BJ28"/>
       <c r="BK28"/>
-      <c r="BL28" t="s">
-        <v>304</v>
-      </c>
+      <c r="BL28"/>
       <c r="BM28"/>
       <c r="BN28"/>
       <c r="BO28"/>
@@ -10449,10 +10439,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>304</v>
+      </c>
+      <c r="B29" t="s">
         <v>305</v>
-      </c>
-      <c r="B29" t="s">
-        <v>306</v>
       </c>
       <c r="C29" t="n">
         <v>2022</v>
@@ -10686,10 +10676,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>306</v>
+      </c>
+      <c r="B30" t="s">
         <v>307</v>
-      </c>
-      <c r="B30" t="s">
-        <v>308</v>
       </c>
       <c r="C30" t="n">
         <v>2022</v>
@@ -10727,7 +10717,7 @@
       <c r="X30"/>
       <c r="Y30"/>
       <c r="Z30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA30"/>
       <c r="AB30"/>
@@ -10771,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="AT30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -10899,16 +10889,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>310</v>
+      </c>
+      <c r="B31" t="s">
         <v>311</v>
-      </c>
-      <c r="B31" t="s">
-        <v>312</v>
       </c>
       <c r="C31" t="n">
         <v>2023</v>
       </c>
       <c r="D31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E31" t="s">
         <v>155</v>
@@ -10986,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="AT31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU31" t="n">
         <v>1</v>
@@ -11037,7 +11027,7 @@
       <c r="BW31"/>
       <c r="BX31"/>
       <c r="BY31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BZ31"/>
       <c r="CA31"/>
@@ -11068,7 +11058,7 @@
       <c r="CX31"/>
       <c r="CY31"/>
       <c r="CZ31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DA31"/>
       <c r="DB31"/>
@@ -11089,7 +11079,7 @@
       <c r="DM31"/>
       <c r="DN31"/>
       <c r="DO31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="DP31"/>
       <c r="DQ31"/>
@@ -11130,10 +11120,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>317</v>
+      </c>
+      <c r="B32" t="s">
         <v>318</v>
-      </c>
-      <c r="B32" t="s">
-        <v>319</v>
       </c>
       <c r="C32" t="n">
         <v>2023</v>
@@ -11215,7 +11205,7 @@
         <v>0</v>
       </c>
       <c r="AT32" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AU32" t="n">
         <v>1</v>
@@ -11343,10 +11333,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B33" t="s">
         <v>321</v>
-      </c>
-      <c r="B33" t="s">
-        <v>322</v>
       </c>
       <c r="C33" t="n">
         <v>2023</v>
@@ -11459,20 +11449,20 @@
       <c r="BE33"/>
       <c r="BF33"/>
       <c r="BG33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH33"/>
       <c r="BI33"/>
       <c r="BJ33"/>
       <c r="BK33"/>
       <c r="BL33" t="s">
+        <v>323</v>
+      </c>
+      <c r="BM33" t="s">
         <v>324</v>
       </c>
-      <c r="BM33" t="s">
+      <c r="BN33" t="s">
         <v>325</v>
-      </c>
-      <c r="BN33" t="s">
-        <v>326</v>
       </c>
       <c r="BO33"/>
       <c r="BP33"/>
@@ -11521,7 +11511,7 @@
       <c r="DC33"/>
       <c r="DD33"/>
       <c r="DE33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF33"/>
       <c r="DG33"/>
@@ -11535,7 +11525,7 @@
       <c r="DM33"/>
       <c r="DN33"/>
       <c r="DO33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="DP33"/>
       <c r="DQ33"/>
@@ -11556,7 +11546,7 @@
       <c r="EB33"/>
       <c r="EC33"/>
       <c r="ED33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="EE33"/>
       <c r="EF33"/>
@@ -11582,10 +11572,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>329</v>
+      </c>
+      <c r="B34" t="s">
         <v>330</v>
-      </c>
-      <c r="B34" t="s">
-        <v>331</v>
       </c>
       <c r="C34" t="n">
         <v>2017</v>
@@ -11795,10 +11785,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>331</v>
+      </c>
+      <c r="B35" t="s">
         <v>332</v>
-      </c>
-      <c r="B35" t="s">
-        <v>333</v>
       </c>
       <c r="C35" t="n">
         <v>2011</v>
@@ -11880,7 +11870,7 @@
         <v>0</v>
       </c>
       <c r="AT35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AU35" t="n">
         <v>1</v>
@@ -11962,7 +11952,7 @@
       <c r="CX35"/>
       <c r="CY35"/>
       <c r="CZ35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DA35"/>
       <c r="DB35"/>
@@ -11983,7 +11973,7 @@
       <c r="DM35"/>
       <c r="DN35"/>
       <c r="DO35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="DP35"/>
       <c r="DQ35"/>
@@ -12004,7 +11994,7 @@
       <c r="EB35"/>
       <c r="EC35"/>
       <c r="ED35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="EE35"/>
       <c r="EF35"/>
@@ -12025,7 +12015,7 @@
       <c r="EQ35"/>
       <c r="ER35"/>
       <c r="ES35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="ET35"/>
       <c r="EU35"/>
@@ -12034,16 +12024,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>337</v>
+      </c>
+      <c r="B36" t="s">
         <v>338</v>
-      </c>
-      <c r="B36" t="s">
-        <v>339</v>
       </c>
       <c r="C36" t="n">
         <v>2020</v>
       </c>
       <c r="D36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E36" t="s">
         <v>155</v>
@@ -12249,10 +12239,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>340</v>
+      </c>
+      <c r="B37" t="s">
         <v>341</v>
-      </c>
-      <c r="B37" t="s">
-        <v>342</v>
       </c>
       <c r="C37" t="n">
         <v>2014</v>
@@ -12334,7 +12324,7 @@
         <v>0</v>
       </c>
       <c r="AT37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AU37" t="n">
         <v>1</v>
@@ -12462,10 +12452,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>343</v>
+      </c>
+      <c r="B38" t="s">
         <v>344</v>
-      </c>
-      <c r="B38" t="s">
-        <v>345</v>
       </c>
       <c r="C38" t="n">
         <v>2021</v>
@@ -12590,16 +12580,16 @@
       <c r="BE38"/>
       <c r="BF38"/>
       <c r="BG38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BI38"/>
       <c r="BJ38"/>
       <c r="BK38"/>
       <c r="BL38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="BM38"/>
       <c r="BN38"/>
@@ -12610,7 +12600,7 @@
       <c r="BS38"/>
       <c r="BT38"/>
       <c r="BU38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BV38"/>
       <c r="BW38"/>
@@ -12670,10 +12660,10 @@
       <c r="DM38"/>
       <c r="DN38"/>
       <c r="DO38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="DP38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="DQ38"/>
       <c r="DR38"/>
@@ -12695,7 +12685,7 @@
       <c r="EB38"/>
       <c r="EC38"/>
       <c r="ED38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="EE38" t="n">
         <v>41.99</v>
@@ -12722,7 +12712,7 @@
       <c r="EQ38"/>
       <c r="ER38"/>
       <c r="ES38" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="ET38" t="n">
         <v>70</v>
@@ -12733,10 +12723,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>350</v>
+      </c>
+      <c r="B39" t="s">
         <v>351</v>
-      </c>
-      <c r="B39" t="s">
-        <v>352</v>
       </c>
       <c r="C39" t="n">
         <v>2022</v>
@@ -12830,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="AT39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AU39" t="n">
         <v>1</v>
@@ -12925,10 +12915,10 @@
       <c r="DC39"/>
       <c r="DD39"/>
       <c r="DE39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DF39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DG39"/>
       <c r="DH39"/>
@@ -12970,7 +12960,7 @@
       <c r="EB39"/>
       <c r="EC39"/>
       <c r="ED39" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="EE39" t="n">
         <v>58.2</v>
@@ -12996,16 +12986,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>355</v>
+      </c>
+      <c r="B40" t="s">
         <v>356</v>
-      </c>
-      <c r="B40" t="s">
-        <v>357</v>
       </c>
       <c r="C40" t="n">
         <v>2020</v>
       </c>
       <c r="D40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E40" t="s">
         <v>229</v>
@@ -13083,7 +13073,7 @@
         <v>0</v>
       </c>
       <c r="AT40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -13120,9 +13110,7 @@
       <c r="BI40"/>
       <c r="BJ40"/>
       <c r="BK40"/>
-      <c r="BL40" t="s">
-        <v>360</v>
-      </c>
+      <c r="BL40"/>
       <c r="BM40"/>
       <c r="BN40"/>
       <c r="BO40"/>
@@ -13227,10 +13215,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B41" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C41" t="n">
         <v>2023</v>
@@ -13456,10 +13444,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C42" t="n">
         <v>2017</v>
@@ -13469,7 +13457,7 @@
         <v>155</v>
       </c>
       <c r="F42" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
@@ -13541,7 +13529,7 @@
         <v>0</v>
       </c>
       <c r="AT42" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AU42" t="n">
         <v>1</v>
@@ -13687,10 +13675,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C43" t="n">
         <v>2018</v>
@@ -13784,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="AT43" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AU43" t="n">
         <v>1</v>
@@ -13817,16 +13805,16 @@
       <c r="BE43"/>
       <c r="BF43"/>
       <c r="BG43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BI43"/>
       <c r="BJ43"/>
       <c r="BK43"/>
       <c r="BL43" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="BM43"/>
       <c r="BN43"/>
@@ -13837,7 +13825,7 @@
       <c r="BS43"/>
       <c r="BT43"/>
       <c r="BU43" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="BV43"/>
       <c r="BW43"/>
@@ -13897,10 +13885,10 @@
       <c r="DM43"/>
       <c r="DN43"/>
       <c r="DO43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="DP43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="DQ43"/>
       <c r="DR43"/>
@@ -13943,7 +13931,7 @@
       <c r="EQ43"/>
       <c r="ER43"/>
       <c r="ES43" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="ET43" t="n">
         <v>60</v>
@@ -13954,10 +13942,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C44" t="n">
         <v>2022</v>
@@ -13969,7 +13957,7 @@
         <v>155</v>
       </c>
       <c r="F44" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G44" t="s">
         <v>157</v>
@@ -14051,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="AT44" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AU44" t="n">
         <v>1</v>
@@ -14082,17 +14070,17 @@
       <c r="BE44"/>
       <c r="BF44"/>
       <c r="BG44" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH44"/>
       <c r="BI44"/>
       <c r="BJ44"/>
       <c r="BK44"/>
       <c r="BL44" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="BM44" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BN44"/>
       <c r="BO44"/>
@@ -14154,7 +14142,7 @@
       <c r="DM44"/>
       <c r="DN44"/>
       <c r="DO44" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="DP44"/>
       <c r="DQ44"/>
@@ -14175,7 +14163,7 @@
       <c r="EB44"/>
       <c r="EC44"/>
       <c r="ED44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="EE44"/>
       <c r="EF44"/>
@@ -14201,10 +14189,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B45" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C45" t="n">
         <v>2021</v>
@@ -14286,7 +14274,7 @@
         <v>0</v>
       </c>
       <c r="AT45" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AU45" t="n">
         <v>1</v>
@@ -14406,7 +14394,7 @@
       <c r="EB45"/>
       <c r="EC45"/>
       <c r="ED45" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="EE45"/>
       <c r="EF45"/>
@@ -14427,7 +14415,7 @@
       <c r="EQ45"/>
       <c r="ER45"/>
       <c r="ES45" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="ET45"/>
       <c r="EU45"/>
@@ -14436,16 +14424,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B46" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C46" t="n">
         <v>2014</v>
       </c>
       <c r="D46" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E46" t="s">
         <v>155</v>
@@ -14568,10 +14556,10 @@
       <c r="BE46"/>
       <c r="BF46"/>
       <c r="BG46" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH46" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BI46"/>
       <c r="BJ46"/>
@@ -14588,7 +14576,7 @@
       <c r="BS46"/>
       <c r="BT46"/>
       <c r="BU46" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="BV46"/>
       <c r="BW46"/>
@@ -14655,7 +14643,7 @@
         <v>206</v>
       </c>
       <c r="DP46" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="DQ46"/>
       <c r="DR46"/>
@@ -14679,7 +14667,7 @@
       <c r="EB46"/>
       <c r="EC46"/>
       <c r="ED46" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="EE46" t="n">
         <v>50.79</v>
@@ -14709,16 +14697,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B47" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C47" t="n">
         <v>2020</v>
       </c>
       <c r="D47" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E47" t="s">
         <v>229</v>
@@ -14796,7 +14784,7 @@
         <v>0</v>
       </c>
       <c r="AT47" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AU47" t="n">
         <v>1</v>
@@ -14924,10 +14912,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B48" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C48" t="n">
         <v>2021</v>
@@ -15007,7 +14995,7 @@
         <v>0</v>
       </c>
       <c r="AT48" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AU48" t="n">
         <v>1</v>
@@ -15089,7 +15077,7 @@
       <c r="CX48"/>
       <c r="CY48"/>
       <c r="CZ48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DA48"/>
       <c r="DB48"/>
@@ -15110,7 +15098,7 @@
       <c r="DM48"/>
       <c r="DN48"/>
       <c r="DO48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="DP48"/>
       <c r="DQ48"/>
@@ -15131,7 +15119,7 @@
       <c r="EB48"/>
       <c r="EC48"/>
       <c r="ED48" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="EE48"/>
       <c r="EF48"/>
@@ -15157,10 +15145,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B49" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C49" t="n">
         <v>2021</v>
@@ -15240,7 +15228,7 @@
         <v>0</v>
       </c>
       <c r="AT49" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AU49" t="n">
         <v>1</v>
@@ -15368,10 +15356,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B50" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C50" t="n">
         <v>2005</v>
@@ -15451,7 +15439,7 @@
         <v>0</v>
       </c>
       <c r="AT50" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AU50" t="n">
         <v>1</v>
@@ -15579,10 +15567,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B51" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C51" t="n">
         <v>2020</v>
@@ -15763,7 +15751,7 @@
       <c r="DM51"/>
       <c r="DN51"/>
       <c r="DO51" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="DP51"/>
       <c r="DQ51"/>
@@ -15808,10 +15796,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B52" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C52" t="n">
         <v>2022</v>
@@ -15844,14 +15832,14 @@
       <c r="S52"/>
       <c r="T52"/>
       <c r="U52" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="V52"/>
       <c r="W52"/>
       <c r="X52"/>
       <c r="Y52"/>
       <c r="Z52" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AA52"/>
       <c r="AB52"/>
@@ -15895,7 +15883,7 @@
         <v>0</v>
       </c>
       <c r="AT52" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AU52" t="n">
         <v>1</v>
@@ -16023,10 +16011,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B53" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C53" t="n">
         <v>2005</v>
@@ -16118,7 +16106,7 @@
         <v>0</v>
       </c>
       <c r="AT53" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AU53" t="n">
         <v>1</v>
@@ -16204,7 +16192,7 @@
       <c r="CX53"/>
       <c r="CY53"/>
       <c r="CZ53" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DA53"/>
       <c r="DB53"/>
@@ -16259,7 +16247,7 @@
       <c r="EQ53"/>
       <c r="ER53"/>
       <c r="ES53" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="ET53"/>
       <c r="EU53"/>
@@ -16268,16 +16256,16 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B54" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C54" t="n">
         <v>2010</v>
       </c>
       <c r="D54" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E54" t="s">
         <v>155</v>
@@ -16355,7 +16343,7 @@
         <v>0</v>
       </c>
       <c r="AT54" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AU54" t="n">
         <v>1</v>
@@ -16386,14 +16374,14 @@
       <c r="BE54"/>
       <c r="BF54"/>
       <c r="BG54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH54"/>
       <c r="BI54"/>
       <c r="BJ54"/>
       <c r="BK54"/>
       <c r="BL54" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="BM54"/>
       <c r="BN54"/>
@@ -16456,7 +16444,7 @@
       <c r="DM54"/>
       <c r="DN54"/>
       <c r="DO54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="DP54"/>
       <c r="DQ54"/>
@@ -16477,7 +16465,7 @@
       <c r="EB54"/>
       <c r="EC54"/>
       <c r="ED54" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="EE54"/>
       <c r="EF54"/>
@@ -16498,7 +16486,7 @@
       <c r="EQ54"/>
       <c r="ER54"/>
       <c r="ES54" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="ET54"/>
       <c r="EU54"/>
@@ -16507,10 +16495,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B55" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C55" t="n">
         <v>2009</v>
@@ -16592,7 +16580,7 @@
         <v>0</v>
       </c>
       <c r="AT55" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AU55" t="n">
         <v>1</v>
@@ -16714,7 +16702,7 @@
       <c r="EB55"/>
       <c r="EC55"/>
       <c r="ED55" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="EE55"/>
       <c r="EF55"/>
@@ -16738,10 +16726,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B56" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C56" t="n">
         <v>2020</v>
@@ -16819,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="AT56" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AU56" t="n">
         <v>1</v>
@@ -16920,7 +16908,7 @@
       <c r="DM56"/>
       <c r="DN56"/>
       <c r="DO56" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="DP56"/>
       <c r="DQ56"/>
@@ -16965,10 +16953,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B57" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C57" t="n">
         <v>2021</v>
@@ -17023,10 +17011,10 @@
       <c r="AC57"/>
       <c r="AD57"/>
       <c r="AE57" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AF57" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AG57"/>
       <c r="AH57"/>
@@ -17062,7 +17050,7 @@
         <v>0</v>
       </c>
       <c r="AT57" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AU57" t="n">
         <v>1</v>
@@ -17192,16 +17180,16 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B58" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C58" t="n">
         <v>2021</v>
       </c>
       <c r="D58" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E58" t="s">
         <v>155</v>
@@ -17273,7 +17261,7 @@
         <v>0</v>
       </c>
       <c r="AT58" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AU58" t="n">
         <v>1</v>
@@ -17415,10 +17403,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B59" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C59" t="n">
         <v>2007</v>
@@ -17435,7 +17423,7 @@
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L59"/>
       <c r="M59"/>
@@ -17500,7 +17488,7 @@
         <v>0</v>
       </c>
       <c r="AT59" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AU59" t="n">
         <v>1</v>
@@ -17628,10 +17616,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B60" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C60" t="n">
         <v>2021</v>
@@ -17725,7 +17713,7 @@
         <v>0</v>
       </c>
       <c r="AT60" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AU60" t="n">
         <v>1</v>
@@ -17758,16 +17746,16 @@
       <c r="BE60"/>
       <c r="BF60"/>
       <c r="BG60" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH60" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BI60"/>
       <c r="BJ60"/>
       <c r="BK60"/>
       <c r="BL60" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="BM60"/>
       <c r="BN60"/>
@@ -17778,7 +17766,7 @@
       <c r="BS60"/>
       <c r="BT60"/>
       <c r="BU60" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="BV60"/>
       <c r="BW60"/>
@@ -17865,7 +17853,7 @@
       <c r="EB60"/>
       <c r="EC60"/>
       <c r="ED60" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="EE60" t="n">
         <v>39</v>
@@ -17892,7 +17880,7 @@
       <c r="EQ60"/>
       <c r="ER60"/>
       <c r="ES60" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="ET60" t="n">
         <v>79</v>
@@ -17903,10 +17891,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B61" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C61" t="n">
         <v>2021</v>
@@ -17990,7 +17978,7 @@
         <v>0</v>
       </c>
       <c r="AT61" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AU61" t="n">
         <v>1</v>
@@ -18118,16 +18106,16 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B62" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C62" t="n">
         <v>2022</v>
       </c>
       <c r="D62" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E62" t="s">
         <v>155</v>
@@ -18205,7 +18193,7 @@
         <v>0</v>
       </c>
       <c r="AT62" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AU62" t="n">
         <v>1</v>
@@ -18333,10 +18321,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B63" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C63" t="n">
         <v>2001</v>
@@ -18416,7 +18404,7 @@
         <v>0</v>
       </c>
       <c r="AT63" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AU63" t="n">
         <v>0</v>
@@ -18505,7 +18493,7 @@
       <c r="DC63"/>
       <c r="DD63"/>
       <c r="DE63" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF63"/>
       <c r="DG63"/>
@@ -18540,7 +18528,7 @@
       <c r="EB63"/>
       <c r="EC63"/>
       <c r="ED63" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="EE63"/>
       <c r="EF63"/>
@@ -18568,10 +18556,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B64" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C64" t="n">
         <v>2017</v>
@@ -18684,17 +18672,17 @@
       <c r="BE64"/>
       <c r="BF64"/>
       <c r="BG64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH64"/>
       <c r="BI64"/>
       <c r="BJ64"/>
       <c r="BK64"/>
       <c r="BL64" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="BM64" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BN64"/>
       <c r="BO64"/>
@@ -18744,7 +18732,7 @@
       <c r="DC64"/>
       <c r="DD64"/>
       <c r="DE64" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF64"/>
       <c r="DG64"/>
@@ -18758,7 +18746,7 @@
       <c r="DM64"/>
       <c r="DN64"/>
       <c r="DO64" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="DP64"/>
       <c r="DQ64"/>
@@ -18779,7 +18767,7 @@
       <c r="EB64"/>
       <c r="EC64"/>
       <c r="ED64" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="EE64"/>
       <c r="EF64"/>
@@ -18800,7 +18788,7 @@
       <c r="EQ64"/>
       <c r="ER64"/>
       <c r="ES64" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="ET64"/>
       <c r="EU64"/>
@@ -18809,10 +18797,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B65" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C65" t="n">
         <v>2013</v>
@@ -19030,10 +19018,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B66" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C66" t="n">
         <v>2022</v>
@@ -19043,7 +19031,7 @@
         <v>155</v>
       </c>
       <c r="F66" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G66"/>
       <c r="H66"/>
@@ -19115,7 +19103,7 @@
         <v>0</v>
       </c>
       <c r="AT66" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AU66" t="n">
         <v>1</v>
@@ -19243,10 +19231,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B67" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C67" t="n">
         <v>2022</v>
@@ -19340,7 +19328,7 @@
         <v>0</v>
       </c>
       <c r="AT67" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AU67" t="n">
         <v>1</v>
@@ -19373,7 +19361,7 @@
       <c r="BE67"/>
       <c r="BF67"/>
       <c r="BG67" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH67" t="s">
         <v>164</v>
@@ -19382,10 +19370,10 @@
       <c r="BJ67"/>
       <c r="BK67"/>
       <c r="BL67" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="BM67" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="BN67"/>
       <c r="BO67"/>
@@ -19453,10 +19441,10 @@
       <c r="DM67"/>
       <c r="DN67"/>
       <c r="DO67" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="DP67" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="DQ67"/>
       <c r="DR67"/>
@@ -19509,7 +19497,7 @@
         <v>173</v>
       </c>
       <c r="B68" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C68" t="n">
         <v>2021</v>
@@ -19719,16 +19707,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B69" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C69" t="n">
         <v>2019</v>
       </c>
       <c r="D69" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E69" t="s">
         <v>229</v>
@@ -19806,7 +19794,7 @@
         <v>0</v>
       </c>
       <c r="AT69" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AU69" t="n">
         <v>1</v>
@@ -19934,16 +19922,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B70" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C70" t="n">
         <v>2018</v>
       </c>
       <c r="D70" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E70" t="s">
         <v>155</v>
@@ -20031,7 +20019,7 @@
         <v>0</v>
       </c>
       <c r="AT70" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AU70" t="n">
         <v>1</v>
@@ -20130,10 +20118,10 @@
       <c r="DC70"/>
       <c r="DD70"/>
       <c r="DE70" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="DF70" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="DG70"/>
       <c r="DH70"/>
@@ -20194,7 +20182,7 @@
       <c r="EQ70"/>
       <c r="ER70"/>
       <c r="ES70" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="ET70" t="n">
         <v>49</v>
@@ -20205,10 +20193,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B71" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C71" t="n">
         <v>2013</v>
@@ -20239,7 +20227,7 @@
       <c r="S71"/>
       <c r="T71"/>
       <c r="U71" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="V71"/>
       <c r="W71"/>
@@ -20290,7 +20278,7 @@
         <v>0</v>
       </c>
       <c r="AT71" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AU71" t="n">
         <v>1</v>
@@ -20321,7 +20309,7 @@
       <c r="BE71"/>
       <c r="BF71"/>
       <c r="BG71" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH71"/>
       <c r="BI71"/>
@@ -20426,10 +20414,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B72" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C72" t="n">
         <v>2021</v>
@@ -20612,7 +20600,7 @@
       <c r="DM72"/>
       <c r="DN72"/>
       <c r="DO72" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="DP72"/>
       <c r="DQ72"/>
@@ -20633,7 +20621,7 @@
       <c r="EB72"/>
       <c r="EC72"/>
       <c r="ED72" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="EE72"/>
       <c r="EF72"/>
@@ -20654,7 +20642,7 @@
       <c r="EQ72"/>
       <c r="ER72"/>
       <c r="ES72" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="ET72"/>
       <c r="EU72"/>
@@ -20663,10 +20651,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B73" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C73" t="n">
         <v>2019</v>
@@ -20748,7 +20736,7 @@
         <v>0</v>
       </c>
       <c r="AT73" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AU73" t="n">
         <v>1</v>
@@ -20876,10 +20864,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B74" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C74" t="n">
         <v>2022</v>
@@ -20961,7 +20949,7 @@
         <v>0</v>
       </c>
       <c r="AT74" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AU74" t="n">
         <v>1</v>
@@ -21089,10 +21077,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B75" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C75" t="n">
         <v>2000</v>
@@ -21192,7 +21180,7 @@
         <v>0</v>
       </c>
       <c r="AT75" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AU75" t="n">
         <v>1</v>
@@ -21227,18 +21215,18 @@
       <c r="BE75"/>
       <c r="BF75"/>
       <c r="BG75" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH75" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BI75" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BJ75"/>
       <c r="BK75"/>
       <c r="BL75" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="BM75"/>
       <c r="BN75"/>
@@ -21249,10 +21237,10 @@
       <c r="BS75"/>
       <c r="BT75"/>
       <c r="BU75" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="BV75" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="BW75"/>
       <c r="BX75"/>
@@ -21381,7 +21369,7 @@
       <c r="EQ75"/>
       <c r="ER75"/>
       <c r="ES75" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="ET75" t="n">
         <v>63</v>
@@ -21394,10 +21382,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B76" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C76" t="n">
         <v>2021</v>
@@ -21524,16 +21512,16 @@
       <c r="BE76"/>
       <c r="BF76"/>
       <c r="BG76" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH76" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BI76"/>
       <c r="BJ76"/>
       <c r="BK76"/>
       <c r="BL76" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="BM76"/>
       <c r="BN76"/>
@@ -21544,7 +21532,7 @@
       <c r="BS76"/>
       <c r="BT76"/>
       <c r="BU76" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="BV76"/>
       <c r="BW76"/>
@@ -21606,10 +21594,10 @@
       <c r="DM76"/>
       <c r="DN76"/>
       <c r="DO76" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="DP76" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="DQ76"/>
       <c r="DR76"/>
@@ -21633,7 +21621,7 @@
       <c r="EB76"/>
       <c r="EC76"/>
       <c r="ED76" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="EE76" t="n">
         <v>55.9</v>
@@ -21671,10 +21659,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B77" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C77" t="n">
         <v>2021</v>
@@ -21792,7 +21780,7 @@
       <c r="BJ77"/>
       <c r="BK77"/>
       <c r="BL77" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="BM77"/>
       <c r="BN77"/>
@@ -21855,7 +21843,7 @@
       <c r="DM77"/>
       <c r="DN77"/>
       <c r="DO77" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="DP77"/>
       <c r="DQ77"/>
@@ -21876,7 +21864,7 @@
       <c r="EB77"/>
       <c r="EC77"/>
       <c r="ED77" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="EE77"/>
       <c r="EF77"/>
@@ -21897,7 +21885,7 @@
       <c r="EQ77"/>
       <c r="ER77"/>
       <c r="ES77" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="ET77"/>
       <c r="EU77"/>
@@ -21906,10 +21894,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B78" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C78" t="n">
         <v>2022</v>
@@ -22036,20 +22024,18 @@
       <c r="BE78"/>
       <c r="BF78"/>
       <c r="BG78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BI78"/>
       <c r="BJ78"/>
       <c r="BK78"/>
       <c r="BL78" t="s">
-        <v>511</v>
-      </c>
-      <c r="BM78" t="s">
-        <v>512</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="BM78"/>
       <c r="BN78"/>
       <c r="BO78"/>
       <c r="BP78"/>
@@ -22058,7 +22044,7 @@
       <c r="BS78"/>
       <c r="BT78"/>
       <c r="BU78" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="BV78"/>
       <c r="BW78"/>
@@ -22118,10 +22104,10 @@
       <c r="DM78"/>
       <c r="DN78"/>
       <c r="DO78" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="DP78" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="DQ78"/>
       <c r="DR78"/>
@@ -22145,7 +22131,7 @@
       <c r="EB78"/>
       <c r="EC78"/>
       <c r="ED78" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="EE78" t="n">
         <v>38.9</v>
@@ -22168,7 +22154,7 @@
       <c r="EQ78"/>
       <c r="ER78"/>
       <c r="ES78" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="ET78" t="n">
         <v>49</v>
@@ -22179,10 +22165,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B79" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C79" t="n">
         <v>2012</v>
@@ -22262,7 +22248,7 @@
         <v>0</v>
       </c>
       <c r="AT79" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AU79" t="n">
         <v>1</v>
@@ -22351,7 +22337,7 @@
       <c r="DC79"/>
       <c r="DD79"/>
       <c r="DE79" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="DF79"/>
       <c r="DG79"/>
@@ -22365,7 +22351,7 @@
       <c r="DM79"/>
       <c r="DN79"/>
       <c r="DO79" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="DP79"/>
       <c r="DQ79"/>
@@ -22408,10 +22394,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B80" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C80" t="n">
         <v>2022</v>
@@ -22445,7 +22431,7 @@
       <c r="X80"/>
       <c r="Y80"/>
       <c r="Z80" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AA80"/>
       <c r="AB80"/>
@@ -22489,7 +22475,7 @@
         <v>0</v>
       </c>
       <c r="AT80" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AU80" t="n">
         <v>0</v>
@@ -22617,10 +22603,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B81" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C81" t="n">
         <v>2015</v>
@@ -22830,16 +22816,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B82" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C82" t="n">
         <v>2021</v>
       </c>
       <c r="D82" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E82" t="s">
         <v>155</v>
@@ -22917,7 +22903,7 @@
         <v>0</v>
       </c>
       <c r="AT82" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AU82" t="n">
         <v>1</v>
@@ -23018,7 +23004,7 @@
       <c r="DM82"/>
       <c r="DN82"/>
       <c r="DO82" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="DP82"/>
       <c r="DQ82"/>
@@ -23039,7 +23025,7 @@
       <c r="EB82"/>
       <c r="EC82"/>
       <c r="ED82" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="EE82"/>
       <c r="EF82"/>
@@ -23065,16 +23051,16 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B83" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C83" t="n">
         <v>2021</v>
       </c>
       <c r="D83" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E83" t="s">
         <v>155</v>
@@ -23101,7 +23087,7 @@
       <c r="S83"/>
       <c r="T83"/>
       <c r="U83" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="V83"/>
       <c r="W83"/>
@@ -23183,14 +23169,14 @@
       <c r="BE83"/>
       <c r="BF83"/>
       <c r="BG83" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH83"/>
       <c r="BI83"/>
       <c r="BJ83"/>
       <c r="BK83"/>
       <c r="BL83" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="BM83"/>
       <c r="BN83"/>
@@ -23274,7 +23260,7 @@
       <c r="EB83"/>
       <c r="EC83"/>
       <c r="ED83" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="EE83"/>
       <c r="EF83"/>
@@ -23300,10 +23286,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B84" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C84" t="n">
         <v>2021</v>
@@ -23387,7 +23373,7 @@
         <v>0</v>
       </c>
       <c r="AT84" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AU84" t="n">
         <v>1</v>
@@ -23418,38 +23404,38 @@
       <c r="BE84"/>
       <c r="BF84"/>
       <c r="BG84" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH84"/>
       <c r="BI84"/>
       <c r="BJ84"/>
       <c r="BK84"/>
       <c r="BL84" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="BM84" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="BN84" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="BO84" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="BP84" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BQ84" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="BR84" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="BS84" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="BT84" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="BU84"/>
       <c r="BV84"/>
@@ -23525,7 +23511,7 @@
       <c r="EB84"/>
       <c r="EC84"/>
       <c r="ED84" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="EE84"/>
       <c r="EF84"/>
@@ -23555,10 +23541,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B85" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C85" t="n">
         <v>2022</v>
@@ -23570,7 +23556,7 @@
         <v>155</v>
       </c>
       <c r="F85" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -23642,7 +23628,7 @@
         <v>0</v>
       </c>
       <c r="AT85" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AU85" t="n">
         <v>1</v>
@@ -23770,10 +23756,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B86" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C86" t="n">
         <v>2013</v>
@@ -23855,7 +23841,7 @@
         <v>0</v>
       </c>
       <c r="AT86" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AU86" t="n">
         <v>1</v>
@@ -23886,14 +23872,14 @@
       <c r="BE86"/>
       <c r="BF86"/>
       <c r="BG86" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH86"/>
       <c r="BI86"/>
       <c r="BJ86"/>
       <c r="BK86"/>
       <c r="BL86" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="BM86"/>
       <c r="BN86"/>
@@ -23937,7 +23923,7 @@
       <c r="CX86"/>
       <c r="CY86"/>
       <c r="CZ86" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DA86"/>
       <c r="DB86"/>
@@ -23958,7 +23944,7 @@
       <c r="DM86"/>
       <c r="DN86"/>
       <c r="DO86" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="DP86"/>
       <c r="DQ86"/>
@@ -23979,7 +23965,7 @@
       <c r="EB86"/>
       <c r="EC86"/>
       <c r="ED86" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="EE86"/>
       <c r="EF86"/>
@@ -24000,7 +23986,7 @@
       <c r="EQ86"/>
       <c r="ER86"/>
       <c r="ES86" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="ET86"/>
       <c r="EU86"/>
@@ -24009,16 +23995,16 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B87" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C87" t="n">
         <v>2001</v>
       </c>
       <c r="D87" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E87" t="s">
         <v>155</v>
@@ -24224,10 +24210,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B88" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C88" t="n">
         <v>2021</v>
@@ -24309,7 +24295,7 @@
         <v>0</v>
       </c>
       <c r="AT88" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AU88" t="n">
         <v>1</v>
@@ -24410,7 +24396,7 @@
       <c r="DM88"/>
       <c r="DN88"/>
       <c r="DO88" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="DP88"/>
       <c r="DQ88"/>
@@ -24455,16 +24441,16 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B89" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C89" t="n">
         <v>2022</v>
       </c>
       <c r="D89" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -24542,7 +24528,7 @@
         <v>0</v>
       </c>
       <c r="AT89" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AU89" t="n">
         <v>1</v>
@@ -24670,10 +24656,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B90" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C90" t="n">
         <v>2006</v>
@@ -24683,7 +24669,7 @@
         <v>155</v>
       </c>
       <c r="F90" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G90"/>
       <c r="H90"/>
@@ -24704,7 +24690,7 @@
       <c r="S90"/>
       <c r="T90"/>
       <c r="U90" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="V90"/>
       <c r="W90"/>
@@ -24808,7 +24794,7 @@
       <c r="BW90"/>
       <c r="BX90"/>
       <c r="BY90" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="BZ90"/>
       <c r="CA90"/>
@@ -24860,7 +24846,7 @@
       <c r="DM90"/>
       <c r="DN90"/>
       <c r="DO90" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="DP90"/>
       <c r="DQ90"/>
@@ -24881,7 +24867,7 @@
       <c r="EB90"/>
       <c r="EC90"/>
       <c r="ED90" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="EE90"/>
       <c r="EF90"/>
@@ -24902,7 +24888,7 @@
       <c r="EQ90"/>
       <c r="ER90"/>
       <c r="ES90" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="ET90"/>
       <c r="EU90"/>
@@ -24911,10 +24897,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B91" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C91" t="n">
         <v>2003</v>
@@ -25124,10 +25110,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B92" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C92" t="n">
         <v>2020</v>
@@ -25353,10 +25339,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B93" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C93" t="n">
         <v>2022</v>
@@ -25450,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="AT93" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AU93" t="n">
         <v>1</v>
@@ -25563,10 +25549,10 @@
       <c r="DM93"/>
       <c r="DN93"/>
       <c r="DO93" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="DP93" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="DQ93"/>
       <c r="DR93"/>
@@ -25612,10 +25598,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B94" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C94" t="n">
         <v>2014</v>
@@ -25697,7 +25683,7 @@
         <v>0</v>
       </c>
       <c r="AT94" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AU94" t="n">
         <v>1</v>
@@ -25825,10 +25811,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B95" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C95" t="n">
         <v>2014</v>
@@ -25910,7 +25896,7 @@
         <v>0</v>
       </c>
       <c r="AT95" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AU95" t="n">
         <v>0</v>
@@ -26011,7 +25997,7 @@
       <c r="DM95"/>
       <c r="DN95"/>
       <c r="DO95" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="DP95"/>
       <c r="DQ95"/>
@@ -26032,7 +26018,7 @@
       <c r="EB95"/>
       <c r="EC95"/>
       <c r="ED95" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="EE95"/>
       <c r="EF95"/>
@@ -26058,10 +26044,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B96" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C96" t="n">
         <v>2022</v>
@@ -26234,7 +26220,7 @@
       <c r="DC96"/>
       <c r="DD96"/>
       <c r="DE96" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="DF96"/>
       <c r="DG96"/>
@@ -26248,7 +26234,7 @@
       <c r="DM96"/>
       <c r="DN96"/>
       <c r="DO96" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="DP96"/>
       <c r="DQ96"/>
@@ -26269,7 +26255,7 @@
       <c r="EB96"/>
       <c r="EC96"/>
       <c r="ED96" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="EE96"/>
       <c r="EF96"/>
@@ -26299,10 +26285,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B97" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C97" t="n">
         <v>2021</v>
@@ -26512,10 +26498,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B98" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C98" t="n">
         <v>2015</v>
@@ -26597,7 +26583,7 @@
         <v>0</v>
       </c>
       <c r="AT98" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AU98" t="n">
         <v>1</v>
@@ -26740,7 +26726,7 @@
       <c r="EQ98"/>
       <c r="ER98"/>
       <c r="ES98" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="ET98"/>
       <c r="EU98"/>
@@ -26749,10 +26735,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B99" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C99" t="n">
         <v>2021</v>
@@ -26832,7 +26818,7 @@
         <v>0</v>
       </c>
       <c r="AT99" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AU99" t="n">
         <v>1</v>
@@ -26960,10 +26946,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B100" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C100" t="n">
         <v>2014</v>
@@ -27045,7 +27031,7 @@
         <v>0</v>
       </c>
       <c r="AT100" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AU100" t="n">
         <v>0</v>
@@ -27083,10 +27069,10 @@
       <c r="BJ100"/>
       <c r="BK100"/>
       <c r="BL100" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="BM100" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BN100"/>
       <c r="BO100"/>
@@ -27148,7 +27134,7 @@
       <c r="DM100"/>
       <c r="DN100"/>
       <c r="DO100" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="DP100"/>
       <c r="DQ100"/>
@@ -27191,10 +27177,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B101" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C101" t="n">
         <v>2008</v>
@@ -27396,7 +27382,7 @@
       <c r="EB101"/>
       <c r="EC101"/>
       <c r="ED101" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="EE101"/>
       <c r="EF101"/>
@@ -27424,10 +27410,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B102" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C102" t="n">
         <v>2002</v>
@@ -27547,10 +27533,10 @@
       <c r="BJ102"/>
       <c r="BK102"/>
       <c r="BL102" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="BM102" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="BN102"/>
       <c r="BO102"/>
@@ -27635,7 +27621,7 @@
       <c r="EB102"/>
       <c r="EC102"/>
       <c r="ED102" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="EE102"/>
       <c r="EF102"/>
@@ -27654,7 +27640,7 @@
       <c r="EQ102"/>
       <c r="ER102"/>
       <c r="ES102" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="ET102"/>
       <c r="EU102"/>
@@ -27663,10 +27649,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B103" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C103" t="n">
         <v>2003</v>
@@ -27748,7 +27734,7 @@
         <v>0</v>
       </c>
       <c r="AT103" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="AU103" t="n">
         <v>1</v>
@@ -27786,7 +27772,7 @@
       <c r="BJ103"/>
       <c r="BK103"/>
       <c r="BL103" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="BM103"/>
       <c r="BN103"/>
@@ -27872,7 +27858,7 @@
       <c r="EB103"/>
       <c r="EC103"/>
       <c r="ED103" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="EE103"/>
       <c r="EF103"/>
@@ -27898,10 +27884,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B104" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C104" t="n">
         <v>2014</v>
@@ -27983,7 +27969,7 @@
         <v>0</v>
       </c>
       <c r="AT104" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AU104" t="n">
         <v>1</v>
@@ -28072,7 +28058,7 @@
       <c r="DC104"/>
       <c r="DD104"/>
       <c r="DE104" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF104"/>
       <c r="DG104"/>
@@ -28124,7 +28110,7 @@
       <c r="EQ104"/>
       <c r="ER104"/>
       <c r="ES104" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="ET104"/>
       <c r="EU104"/>
@@ -28133,16 +28119,16 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B105" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C105" t="n">
         <v>2021</v>
       </c>
       <c r="D105" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E105" t="s">
         <v>155</v>
@@ -28348,16 +28334,16 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B106" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C106" t="n">
         <v>2022</v>
       </c>
       <c r="D106" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E106" t="s">
         <v>155</v>
@@ -28433,7 +28419,7 @@
         <v>0</v>
       </c>
       <c r="AT106" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AU106" t="n">
         <v>1</v>
@@ -28534,7 +28520,7 @@
       <c r="DM106"/>
       <c r="DN106"/>
       <c r="DO106" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="DP106"/>
       <c r="DQ106"/>
@@ -28555,7 +28541,7 @@
       <c r="EB106"/>
       <c r="EC106"/>
       <c r="ED106" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="EE106"/>
       <c r="EF106"/>
@@ -28576,7 +28562,7 @@
       <c r="EQ106"/>
       <c r="ER106"/>
       <c r="ES106" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="ET106"/>
       <c r="EU106"/>
@@ -28585,10 +28571,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B107" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C107" t="n">
         <v>2011</v>
@@ -28668,7 +28654,7 @@
         <v>0</v>
       </c>
       <c r="AT107" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AU107" t="n">
         <v>1</v>
@@ -28796,10 +28782,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B108" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C108" t="n">
         <v>2015</v>
@@ -29002,10 +28988,10 @@
       <c r="DM108"/>
       <c r="DN108"/>
       <c r="DO108" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="DP108" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="DQ108"/>
       <c r="DR108"/>
@@ -29025,7 +29011,7 @@
       <c r="EB108"/>
       <c r="EC108"/>
       <c r="ED108" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="EE108" t="n">
         <v>41.35</v>
@@ -29048,7 +29034,7 @@
       <c r="EQ108"/>
       <c r="ER108"/>
       <c r="ES108" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="ET108" t="n">
         <v>69</v>
@@ -29059,16 +29045,16 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B109" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C109" t="n">
         <v>2014</v>
       </c>
       <c r="D109" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E109" t="s">
         <v>155</v>
@@ -29146,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="AT109" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AU109" t="n">
         <v>1</v>
@@ -29274,10 +29260,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B110" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C110" t="n">
         <v>1994</v>
@@ -29308,7 +29294,7 @@
       <c r="S110"/>
       <c r="T110"/>
       <c r="U110" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="V110"/>
       <c r="W110"/>
@@ -29359,7 +29345,7 @@
         <v>0</v>
       </c>
       <c r="AT110" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AU110" t="n">
         <v>1</v>
@@ -29446,7 +29432,7 @@
       <c r="DC110"/>
       <c r="DD110"/>
       <c r="DE110" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF110"/>
       <c r="DG110"/>
@@ -29479,7 +29465,7 @@
       <c r="EB110"/>
       <c r="EC110"/>
       <c r="ED110" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="EE110"/>
       <c r="EF110"/>
@@ -29503,10 +29489,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B111" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C111" t="n">
         <v>2008</v>
@@ -29588,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="AT111" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AU111" t="n">
         <v>0</v>
@@ -29716,10 +29702,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B112" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C112" t="n">
         <v>2008</v>
@@ -29750,7 +29736,7 @@
       <c r="S112"/>
       <c r="T112"/>
       <c r="U112" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="V112"/>
       <c r="W112"/>
@@ -29890,7 +29876,7 @@
       <c r="DC112"/>
       <c r="DD112"/>
       <c r="DE112" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF112"/>
       <c r="DG112"/>
@@ -29921,7 +29907,7 @@
       <c r="EB112"/>
       <c r="EC112"/>
       <c r="ED112" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="EE112"/>
       <c r="EF112"/>
@@ -29940,7 +29926,7 @@
       <c r="EQ112"/>
       <c r="ER112"/>
       <c r="ES112" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="ET112"/>
       <c r="EU112"/>
@@ -29949,16 +29935,16 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B113" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C113" t="n">
         <v>2017</v>
       </c>
       <c r="D113" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E113" t="s">
         <v>155</v>
@@ -30164,10 +30150,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B114" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C114" t="n">
         <v>2017</v>
@@ -30198,7 +30184,7 @@
       <c r="S114"/>
       <c r="T114"/>
       <c r="U114" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="V114"/>
       <c r="W114"/>
@@ -30249,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="AT114" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AU114" t="n">
         <v>1</v>
@@ -30338,7 +30324,7 @@
       <c r="DC114"/>
       <c r="DD114"/>
       <c r="DE114" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DF114"/>
       <c r="DG114"/>
@@ -30373,7 +30359,7 @@
       <c r="EB114"/>
       <c r="EC114"/>
       <c r="ED114" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="EE114"/>
       <c r="EF114"/>
@@ -30399,16 +30385,16 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B115" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C115" t="n">
         <v>2021</v>
       </c>
       <c r="D115" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E115" t="s">
         <v>155</v>
@@ -30442,7 +30428,7 @@
       <c r="X115"/>
       <c r="Y115"/>
       <c r="Z115" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AA115"/>
       <c r="AB115"/>
@@ -30486,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="AT115" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="AU115" t="n">
         <v>1</v>
@@ -30614,10 +30600,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B116" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C116" t="n">
         <v>2012</v>
@@ -30699,7 +30685,7 @@
         <v>0</v>
       </c>
       <c r="AT116" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AU116" t="n">
         <v>1</v>
@@ -30788,7 +30774,7 @@
       <c r="DC116"/>
       <c r="DD116"/>
       <c r="DE116" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF116"/>
       <c r="DG116"/>
@@ -30849,10 +30835,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B117" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C117" t="n">
         <v>2012</v>
@@ -30934,7 +30920,7 @@
         <v>0</v>
       </c>
       <c r="AT117" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AU117" t="n">
         <v>1</v>
@@ -31035,7 +31021,7 @@
       <c r="DM117"/>
       <c r="DN117"/>
       <c r="DO117" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="DP117"/>
       <c r="DQ117"/>
@@ -31056,7 +31042,7 @@
       <c r="EB117"/>
       <c r="EC117"/>
       <c r="ED117" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="EE117"/>
       <c r="EF117"/>
@@ -31080,10 +31066,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B118" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C118" t="n">
         <v>2003</v>
@@ -31165,7 +31151,7 @@
         <v>0</v>
       </c>
       <c r="AT118" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AU118" t="n">
         <v>0</v>
@@ -31247,14 +31233,14 @@
       <c r="CX118"/>
       <c r="CY118"/>
       <c r="CZ118" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DA118"/>
       <c r="DB118"/>
       <c r="DC118"/>
       <c r="DD118"/>
       <c r="DE118" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="DF118"/>
       <c r="DG118"/>
@@ -31268,7 +31254,7 @@
       <c r="DM118"/>
       <c r="DN118"/>
       <c r="DO118" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="DP118"/>
       <c r="DQ118"/>
@@ -31309,16 +31295,16 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B119" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C119" t="n">
         <v>2022</v>
       </c>
       <c r="D119" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E119" t="s">
         <v>155</v>
@@ -31396,7 +31382,7 @@
         <v>0</v>
       </c>
       <c r="AT119" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="AU119" t="n">
         <v>1</v>
@@ -31540,10 +31526,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B120" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C120" t="n">
         <v>2021</v>
@@ -31726,7 +31712,7 @@
       <c r="DM120"/>
       <c r="DN120"/>
       <c r="DO120" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="DP120"/>
       <c r="DQ120"/>
@@ -31767,16 +31753,16 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B121" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C121" t="n">
         <v>2008</v>
       </c>
       <c r="D121" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E121" t="s">
         <v>155</v>
@@ -31982,10 +31968,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B122" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C122" t="n">
         <v>2015</v>
@@ -32067,7 +32053,7 @@
         <v>0</v>
       </c>
       <c r="AT122" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="AU122" t="n">
         <v>1</v>
@@ -32168,7 +32154,7 @@
       <c r="DM122"/>
       <c r="DN122"/>
       <c r="DO122" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="DP122"/>
       <c r="DQ122"/>
@@ -32211,10 +32197,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B123" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C123" t="n">
         <v>2014</v>
@@ -32224,7 +32210,7 @@
         <v>229</v>
       </c>
       <c r="F123" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G123"/>
       <c r="H123"/>
@@ -32259,7 +32245,7 @@
       <c r="AC123"/>
       <c r="AD123"/>
       <c r="AE123" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AF123"/>
       <c r="AG123"/>
@@ -32296,7 +32282,7 @@
         <v>0</v>
       </c>
       <c r="AT123" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AU123" t="n">
         <v>0</v>
@@ -32327,14 +32313,14 @@
       <c r="BE123"/>
       <c r="BF123"/>
       <c r="BG123" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH123"/>
       <c r="BI123"/>
       <c r="BJ123"/>
       <c r="BK123"/>
       <c r="BL123" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="BM123"/>
       <c r="BN123"/>
@@ -32385,7 +32371,7 @@
       <c r="DC123"/>
       <c r="DD123"/>
       <c r="DE123" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="DF123"/>
       <c r="DG123"/>
@@ -32399,7 +32385,7 @@
       <c r="DM123"/>
       <c r="DN123"/>
       <c r="DO123" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="DP123"/>
       <c r="DQ123"/>
@@ -32420,7 +32406,7 @@
       <c r="EB123"/>
       <c r="EC123"/>
       <c r="ED123" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="EE123"/>
       <c r="EF123"/>
@@ -32441,7 +32427,7 @@
       <c r="EQ123"/>
       <c r="ER123"/>
       <c r="ES123" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="ET123"/>
       <c r="EU123"/>
@@ -32450,22 +32436,22 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B124" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C124" t="n">
         <v>2016</v>
       </c>
       <c r="D124" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E124" t="s">
         <v>155</v>
       </c>
       <c r="F124" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G124"/>
       <c r="H124"/>
@@ -32500,7 +32486,7 @@
       <c r="AC124"/>
       <c r="AD124"/>
       <c r="AE124" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AF124"/>
       <c r="AG124"/>
@@ -32537,7 +32523,7 @@
         <v>0</v>
       </c>
       <c r="AT124" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="AU124" t="n">
         <v>0</v>
@@ -32665,10 +32651,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B125" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C125" t="n">
         <v>2022</v>
@@ -32844,7 +32830,7 @@
       <c r="DH125"/>
       <c r="DI125"/>
       <c r="DJ125" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="DK125"/>
       <c r="DL125"/>
@@ -32872,7 +32858,7 @@
       <c r="EB125"/>
       <c r="EC125"/>
       <c r="ED125" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="EE125"/>
       <c r="EF125"/>
@@ -32893,7 +32879,7 @@
       <c r="EQ125"/>
       <c r="ER125"/>
       <c r="ES125" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="ET125"/>
       <c r="EU125"/>
@@ -32902,10 +32888,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B126" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C126" t="n">
         <v>2020</v>
@@ -32987,7 +32973,7 @@
         <v>0</v>
       </c>
       <c r="AT126" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="AU126" t="n">
         <v>1</v>
@@ -33115,10 +33101,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B127" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C127" t="n">
         <v>2023</v>
@@ -33200,7 +33186,7 @@
         <v>0</v>
       </c>
       <c r="AT127" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="AU127" t="n">
         <v>0</v>
@@ -33328,10 +33314,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B128" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C128" t="n">
         <v>2021</v>
@@ -33362,7 +33348,7 @@
       <c r="S128"/>
       <c r="T128"/>
       <c r="U128" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V128"/>
       <c r="W128"/>
@@ -33413,7 +33399,7 @@
         <v>0</v>
       </c>
       <c r="AT128" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="AU128" t="n">
         <v>1</v>
@@ -33502,7 +33488,7 @@
       <c r="DC128"/>
       <c r="DD128"/>
       <c r="DE128" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="DF128"/>
       <c r="DG128"/>
@@ -33516,7 +33502,7 @@
       <c r="DM128"/>
       <c r="DN128"/>
       <c r="DO128" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="DP128"/>
       <c r="DQ128"/>
@@ -33537,7 +33523,7 @@
       <c r="EB128"/>
       <c r="EC128"/>
       <c r="ED128" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="EE128"/>
       <c r="EF128"/>
@@ -33563,10 +33549,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B129" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C129" t="n">
         <v>2021</v>
@@ -33648,7 +33634,7 @@
         <v>0</v>
       </c>
       <c r="AT129" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AU129" t="n">
         <v>1</v>
@@ -33737,7 +33723,7 @@
       <c r="DC129"/>
       <c r="DD129"/>
       <c r="DE129" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="DF129"/>
       <c r="DG129"/>
@@ -33772,7 +33758,7 @@
       <c r="EB129"/>
       <c r="EC129"/>
       <c r="ED129" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="EE129"/>
       <c r="EF129"/>
@@ -33796,16 +33782,16 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B130" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C130" t="n">
         <v>2021</v>
       </c>
       <c r="D130" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E130" t="s">
         <v>155</v>
@@ -33984,7 +33970,7 @@
       <c r="DM130"/>
       <c r="DN130"/>
       <c r="DO130" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="DP130"/>
       <c r="DQ130"/>
@@ -34022,7 +34008,7 @@
       <c r="EQ130"/>
       <c r="ER130"/>
       <c r="ES130" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="ET130"/>
       <c r="EU130"/>
@@ -34031,16 +34017,16 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B131" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C131" t="n">
         <v>2020</v>
       </c>
       <c r="D131" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E131" t="s">
         <v>155</v>
@@ -34118,7 +34104,7 @@
         <v>0</v>
       </c>
       <c r="AT131" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AU131" t="n">
         <v>1</v>
@@ -34240,7 +34226,7 @@
       <c r="EB131"/>
       <c r="EC131"/>
       <c r="ED131" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="EE131"/>
       <c r="EF131"/>
@@ -34266,10 +34252,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B132" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="C132" t="n">
         <v>2022</v>
@@ -34363,7 +34349,7 @@
         <v>0</v>
       </c>
       <c r="AT132" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AU132" t="n">
         <v>1</v>
@@ -34462,10 +34448,10 @@
       <c r="DC132"/>
       <c r="DD132"/>
       <c r="DE132" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DF132" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DG132"/>
       <c r="DH132"/>
@@ -34507,7 +34493,7 @@
       <c r="EB132"/>
       <c r="EC132"/>
       <c r="ED132" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="EE132" t="n">
         <v>30</v>
@@ -34534,7 +34520,7 @@
       <c r="EQ132"/>
       <c r="ER132"/>
       <c r="ES132" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="ET132" t="n">
         <v>45</v>
@@ -34545,10 +34531,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B133" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C133" t="n">
         <v>2008</v>
@@ -34579,7 +34565,7 @@
       <c r="S133"/>
       <c r="T133"/>
       <c r="U133" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V133"/>
       <c r="W133"/>
@@ -34668,7 +34654,7 @@
       <c r="BJ133"/>
       <c r="BK133"/>
       <c r="BL133" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BM133"/>
       <c r="BN133"/>
@@ -34719,7 +34705,7 @@
       <c r="DC133"/>
       <c r="DD133"/>
       <c r="DE133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF133"/>
       <c r="DG133"/>
@@ -34733,7 +34719,7 @@
       <c r="DM133"/>
       <c r="DN133"/>
       <c r="DO133" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="DP133"/>
       <c r="DQ133"/>
@@ -34754,7 +34740,7 @@
       <c r="EB133"/>
       <c r="EC133"/>
       <c r="ED133" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="EE133"/>
       <c r="EF133"/>
@@ -34775,7 +34761,7 @@
       <c r="EQ133"/>
       <c r="ER133"/>
       <c r="ES133" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="ET133"/>
       <c r="EU133"/>
@@ -34784,16 +34770,16 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B134" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C134" t="n">
         <v>2022</v>
       </c>
       <c r="D134" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E134" t="s">
         <v>155</v>
@@ -34820,7 +34806,7 @@
       <c r="S134"/>
       <c r="T134"/>
       <c r="U134" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="V134"/>
       <c r="W134"/>
@@ -34871,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="AT134" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="AU134" t="n">
         <v>1</v>
@@ -34999,10 +34985,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B135" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C135" t="n">
         <v>2020</v>
@@ -35084,7 +35070,7 @@
         <v>0</v>
       </c>
       <c r="AT135" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AU135" t="n">
         <v>1</v>
@@ -35206,7 +35192,7 @@
       <c r="EB135"/>
       <c r="EC135"/>
       <c r="ED135" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="EE135"/>
       <c r="EF135"/>
@@ -35230,10 +35216,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B136" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C136" t="n">
         <v>2019</v>
@@ -35313,7 +35299,7 @@
         <v>0</v>
       </c>
       <c r="AT136" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="AU136" t="n">
         <v>1</v>
@@ -35364,7 +35350,7 @@
       <c r="BW136"/>
       <c r="BX136"/>
       <c r="BY136" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="BZ136"/>
       <c r="CA136"/>
@@ -35402,7 +35388,7 @@
       <c r="DC136"/>
       <c r="DD136"/>
       <c r="DE136" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF136"/>
       <c r="DG136"/>
@@ -35416,7 +35402,7 @@
       <c r="DM136"/>
       <c r="DN136"/>
       <c r="DO136" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="DP136"/>
       <c r="DQ136"/>
@@ -35437,7 +35423,7 @@
       <c r="EB136"/>
       <c r="EC136"/>
       <c r="ED136" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="EE136"/>
       <c r="EF136"/>
@@ -35456,7 +35442,7 @@
       <c r="EQ136"/>
       <c r="ER136"/>
       <c r="ES136" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="ET136"/>
       <c r="EU136"/>
@@ -35465,10 +35451,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B137" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C137" t="n">
         <v>2010</v>
@@ -35550,7 +35536,7 @@
         <v>0</v>
       </c>
       <c r="AT137" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AU137" t="n">
         <v>1</v>
@@ -35696,10 +35682,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B138" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C138" t="n">
         <v>2018</v>
@@ -35709,7 +35695,7 @@
         <v>155</v>
       </c>
       <c r="F138" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G138"/>
       <c r="H138"/>
@@ -35781,7 +35767,7 @@
         <v>0</v>
       </c>
       <c r="AT138" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="AU138" t="n">
         <v>0</v>
@@ -35870,7 +35856,7 @@
       <c r="DC138"/>
       <c r="DD138"/>
       <c r="DE138" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF138"/>
       <c r="DG138"/>
@@ -35905,7 +35891,7 @@
       <c r="EB138"/>
       <c r="EC138"/>
       <c r="ED138" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="EE138"/>
       <c r="EF138"/>
@@ -35926,7 +35912,7 @@
       <c r="EQ138"/>
       <c r="ER138"/>
       <c r="ES138" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="ET138"/>
       <c r="EU138"/>
@@ -35935,10 +35921,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B139" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C139" t="n">
         <v>2004</v>
@@ -36020,7 +36006,7 @@
         <v>0</v>
       </c>
       <c r="AT139" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="AU139" t="n">
         <v>1</v>
@@ -36119,7 +36105,7 @@
       <c r="DM139"/>
       <c r="DN139"/>
       <c r="DO139" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="DP139"/>
       <c r="DQ139"/>
@@ -36140,7 +36126,7 @@
       <c r="EB139"/>
       <c r="EC139"/>
       <c r="ED139" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="EE139"/>
       <c r="EF139"/>
@@ -36166,10 +36152,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="B140" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C140" t="n">
         <v>2019</v>
@@ -36251,7 +36237,7 @@
         <v>0</v>
       </c>
       <c r="AT140" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="AU140" t="n">
         <v>1</v>
@@ -36352,7 +36338,7 @@
       <c r="DM140"/>
       <c r="DN140"/>
       <c r="DO140" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="DP140"/>
       <c r="DQ140"/>
@@ -36397,16 +36383,16 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B141" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C141" t="n">
         <v>2022</v>
       </c>
       <c r="D141" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E141" t="s">
         <v>229</v>
@@ -36612,10 +36598,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B142" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C142" t="n">
         <v>2021</v>
@@ -36695,7 +36681,7 @@
         <v>0</v>
       </c>
       <c r="AT142" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="AU142" t="n">
         <v>1</v>
@@ -36823,10 +36809,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B143" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C143" t="n">
         <v>2021</v>
@@ -36908,7 +36894,7 @@
         <v>0</v>
       </c>
       <c r="AT143" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AU143" t="n">
         <v>1</v>
@@ -37052,10 +37038,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B144" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C144" t="n">
         <v>2013</v>
@@ -37137,7 +37123,7 @@
         <v>0</v>
       </c>
       <c r="AT144" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="AU144" t="n">
         <v>0</v>
@@ -37265,10 +37251,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B145" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C145" t="n">
         <v>2012</v>
@@ -37299,7 +37285,7 @@
       <c r="S145"/>
       <c r="T145"/>
       <c r="U145" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="V145"/>
       <c r="W145"/>
@@ -37350,7 +37336,7 @@
         <v>0</v>
       </c>
       <c r="AT145" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="AU145" t="n">
         <v>1</v>
@@ -37478,16 +37464,16 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B146" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C146" t="n">
         <v>2020</v>
       </c>
       <c r="D146" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E146" t="s">
         <v>155</v>
@@ -37526,7 +37512,7 @@
       <c r="AC146"/>
       <c r="AD146"/>
       <c r="AE146" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AF146"/>
       <c r="AG146"/>
@@ -37563,7 +37549,7 @@
         <v>0</v>
       </c>
       <c r="AT146" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AU146" t="n">
         <v>1</v>
@@ -37594,14 +37580,14 @@
       <c r="BE146"/>
       <c r="BF146"/>
       <c r="BG146" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH146"/>
       <c r="BI146"/>
       <c r="BJ146"/>
       <c r="BK146"/>
       <c r="BL146" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="BM146"/>
       <c r="BN146"/>
@@ -37664,7 +37650,7 @@
       <c r="DM146"/>
       <c r="DN146"/>
       <c r="DO146" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="DP146"/>
       <c r="DQ146"/>
@@ -37685,7 +37671,7 @@
       <c r="EB146"/>
       <c r="EC146"/>
       <c r="ED146" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="EE146"/>
       <c r="EF146"/>
@@ -37706,7 +37692,7 @@
       <c r="EQ146"/>
       <c r="ER146"/>
       <c r="ES146" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="ET146"/>
       <c r="EU146"/>
@@ -37715,16 +37701,16 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B147" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C147" t="n">
         <v>2004</v>
       </c>
       <c r="D147" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E147" t="s">
         <v>155</v>
@@ -37889,7 +37875,7 @@
       <c r="DC147"/>
       <c r="DD147"/>
       <c r="DE147" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF147"/>
       <c r="DG147"/>
@@ -37903,7 +37889,7 @@
       <c r="DM147"/>
       <c r="DN147"/>
       <c r="DO147" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="DP147"/>
       <c r="DQ147"/>
@@ -37941,7 +37927,7 @@
       <c r="EQ147"/>
       <c r="ER147"/>
       <c r="ES147" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="ET147"/>
       <c r="EU147"/>
@@ -37950,10 +37936,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B148" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C148" t="n">
         <v>2022</v>
@@ -38035,7 +38021,7 @@
         <v>0</v>
       </c>
       <c r="AT148" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="AU148" t="n">
         <v>0</v>
@@ -38163,10 +38149,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B149" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C149" t="n">
         <v>2014</v>
@@ -38197,7 +38183,7 @@
       <c r="S149"/>
       <c r="T149"/>
       <c r="U149" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="V149"/>
       <c r="W149"/>
@@ -38248,7 +38234,7 @@
         <v>0</v>
       </c>
       <c r="AT149" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="AU149" t="n">
         <v>0</v>
@@ -38337,7 +38323,7 @@
       <c r="DC149"/>
       <c r="DD149"/>
       <c r="DE149" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="DF149"/>
       <c r="DG149"/>
@@ -38372,7 +38358,7 @@
       <c r="EB149"/>
       <c r="EC149"/>
       <c r="ED149" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="EE149"/>
       <c r="EF149"/>
@@ -38396,16 +38382,16 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B150" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C150" t="n">
         <v>2021</v>
       </c>
       <c r="D150" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E150" t="s">
         <v>155</v>
@@ -38414,7 +38400,7 @@
         <v>156</v>
       </c>
       <c r="G150" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H150"/>
       <c r="I150"/>
@@ -38452,10 +38438,10 @@
       <c r="AC150"/>
       <c r="AD150"/>
       <c r="AE150" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AF150" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AG150"/>
       <c r="AH150"/>
@@ -38621,10 +38607,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B151" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C151" t="n">
         <v>2022</v>
@@ -38655,7 +38641,7 @@
       <c r="S151"/>
       <c r="T151"/>
       <c r="U151" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V151"/>
       <c r="W151"/>
@@ -38795,7 +38781,7 @@
       <c r="DC151"/>
       <c r="DD151"/>
       <c r="DE151" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="DF151"/>
       <c r="DG151"/>
@@ -38852,16 +38838,16 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B152" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C152" t="n">
         <v>2012</v>
       </c>
       <c r="D152" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E152" t="s">
         <v>155</v>
@@ -38939,7 +38925,7 @@
         <v>0</v>
       </c>
       <c r="AT152" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="AU152" t="n">
         <v>1</v>
@@ -39076,7 +39062,7 @@
       <c r="EQ152"/>
       <c r="ER152"/>
       <c r="ES152" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="ET152"/>
       <c r="EU152"/>
@@ -39085,10 +39071,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B153" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C153" t="n">
         <v>2010</v>
@@ -39292,7 +39278,7 @@
       <c r="EB153"/>
       <c r="EC153"/>
       <c r="ED153" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="EE153"/>
       <c r="EF153"/>
@@ -39318,16 +39304,16 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B154" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C154" t="n">
         <v>2017</v>
       </c>
       <c r="D154" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E154" t="s">
         <v>155</v>
@@ -39405,7 +39391,7 @@
         <v>0</v>
       </c>
       <c r="AT154" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="AU154" t="n">
         <v>0</v>
@@ -39533,10 +39519,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B155" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C155" t="n">
         <v>2021</v>
@@ -39707,7 +39693,7 @@
       <c r="DC155"/>
       <c r="DD155"/>
       <c r="DE155" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF155"/>
       <c r="DG155"/>
@@ -39760,16 +39746,16 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B156" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C156" t="n">
         <v>2022</v>
       </c>
       <c r="D156" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E156" t="s">
         <v>229</v>
@@ -39845,7 +39831,7 @@
         <v>0</v>
       </c>
       <c r="AT156" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AU156" t="n">
         <v>0</v>
@@ -39946,7 +39932,7 @@
       <c r="DM156"/>
       <c r="DN156"/>
       <c r="DO156" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="DP156"/>
       <c r="DQ156"/>
@@ -39987,16 +39973,16 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B157" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C157" t="n">
         <v>2018</v>
       </c>
       <c r="D157" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E157" t="s">
         <v>229</v>
@@ -40074,7 +40060,7 @@
         <v>0</v>
       </c>
       <c r="AT157" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="AU157" t="n">
         <v>1</v>
@@ -40202,10 +40188,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B158" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="C158" t="n">
         <v>2010</v>
@@ -40376,7 +40362,7 @@
       <c r="DC158"/>
       <c r="DD158"/>
       <c r="DE158" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF158"/>
       <c r="DG158"/>
@@ -40411,7 +40397,7 @@
       <c r="EB158"/>
       <c r="EC158"/>
       <c r="ED158" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="EE158"/>
       <c r="EF158"/>
@@ -40437,16 +40423,16 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B159" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C159" t="n">
         <v>2022</v>
       </c>
       <c r="D159" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E159" t="s">
         <v>155</v>
@@ -40524,7 +40510,7 @@
         <v>0</v>
       </c>
       <c r="AT159" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="AU159" t="n">
         <v>1</v>
@@ -40652,10 +40638,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B160" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C160" t="n">
         <v>2023</v>
@@ -40870,7 +40856,7 @@
         <v>246</v>
       </c>
       <c r="B161" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C161" t="n">
         <v>2020</v>
@@ -40954,7 +40940,7 @@
         <v>0</v>
       </c>
       <c r="AT161" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AU161" t="n">
         <v>1</v>
@@ -41082,10 +41068,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B162" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C162" t="n">
         <v>2020</v>
@@ -41118,7 +41104,7 @@
       <c r="S162"/>
       <c r="T162"/>
       <c r="U162" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V162"/>
       <c r="W162"/>
@@ -41207,7 +41193,7 @@
       <c r="BJ162"/>
       <c r="BK162"/>
       <c r="BL162" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="BM162"/>
       <c r="BN162"/>
@@ -41272,7 +41258,7 @@
       <c r="DM162"/>
       <c r="DN162"/>
       <c r="DO162" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="DP162"/>
       <c r="DQ162"/>
@@ -41293,7 +41279,7 @@
       <c r="EB162"/>
       <c r="EC162"/>
       <c r="ED162" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="EE162"/>
       <c r="EF162"/>
@@ -41319,10 +41305,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B163" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C163" t="n">
         <v>2013</v>
@@ -41493,7 +41479,7 @@
       <c r="DC163"/>
       <c r="DD163"/>
       <c r="DE163" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DF163"/>
       <c r="DG163"/>
@@ -41545,7 +41531,7 @@
       <c r="EQ163"/>
       <c r="ER163"/>
       <c r="ES163" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="ET163"/>
       <c r="EU163"/>
@@ -41554,10 +41540,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B164" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="C164" t="n">
         <v>2016</v>
@@ -41588,7 +41574,7 @@
       <c r="S164"/>
       <c r="T164"/>
       <c r="U164" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="V164"/>
       <c r="W164"/>
@@ -41639,7 +41625,7 @@
         <v>0</v>
       </c>
       <c r="AT164" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="AU164" t="n">
         <v>1</v>
@@ -41677,10 +41663,10 @@
       <c r="BJ164"/>
       <c r="BK164"/>
       <c r="BL164" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="BM164" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="BN164"/>
       <c r="BO164"/>
@@ -41742,7 +41728,7 @@
       <c r="DM164"/>
       <c r="DN164"/>
       <c r="DO164" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="DP164"/>
       <c r="DQ164"/>
@@ -41763,7 +41749,7 @@
       <c r="EB164"/>
       <c r="EC164"/>
       <c r="ED164" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="EE164"/>
       <c r="EF164"/>
@@ -41789,10 +41775,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B165" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C165" t="n">
         <v>2005</v>
@@ -41823,7 +41809,7 @@
       <c r="S165"/>
       <c r="T165"/>
       <c r="U165" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V165"/>
       <c r="W165"/>
@@ -41998,7 +41984,7 @@
       <c r="EB165"/>
       <c r="EC165"/>
       <c r="ED165" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="EE165"/>
       <c r="EF165"/>
@@ -42024,10 +42010,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B166" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C166" t="n">
         <v>2018</v>
@@ -42237,16 +42223,16 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B167" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="C167" t="n">
         <v>2018</v>
       </c>
       <c r="D167" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="E167" t="s">
         <v>155</v>
@@ -42324,7 +42310,7 @@
         <v>0</v>
       </c>
       <c r="AT167" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="AU167" t="n">
         <v>1</v>
@@ -42452,10 +42438,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B168" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C168" t="n">
         <v>2022</v>
@@ -42488,7 +42474,7 @@
       <c r="S168"/>
       <c r="T168"/>
       <c r="U168" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V168"/>
       <c r="W168"/>
@@ -42539,7 +42525,7 @@
         <v>0</v>
       </c>
       <c r="AT168" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="AU168" t="n">
         <v>1</v>
@@ -42628,7 +42614,7 @@
       <c r="DC168"/>
       <c r="DD168"/>
       <c r="DE168" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="DF168"/>
       <c r="DG168"/>
@@ -42642,7 +42628,7 @@
       <c r="DM168"/>
       <c r="DN168"/>
       <c r="DO168" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="DP168"/>
       <c r="DQ168"/>
@@ -42663,7 +42649,7 @@
       <c r="EB168"/>
       <c r="EC168"/>
       <c r="ED168" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="EE168"/>
       <c r="EF168"/>
@@ -42682,7 +42668,7 @@
       <c r="EQ168"/>
       <c r="ER168"/>
       <c r="ES168" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="ET168"/>
       <c r="EU168"/>
@@ -42691,10 +42677,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B169" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C169" t="n">
         <v>2004</v>
@@ -42725,7 +42711,7 @@
       <c r="S169"/>
       <c r="T169"/>
       <c r="U169" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="V169"/>
       <c r="W169"/>
@@ -42904,10 +42890,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B170" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C170" t="n">
         <v>2022</v>
@@ -43117,10 +43103,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B171" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C171" t="n">
         <v>2022</v>
@@ -43151,7 +43137,7 @@
       <c r="S171"/>
       <c r="T171"/>
       <c r="U171" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V171"/>
       <c r="W171"/>
@@ -43240,7 +43226,7 @@
       <c r="BJ171"/>
       <c r="BK171"/>
       <c r="BL171" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="BM171"/>
       <c r="BN171"/>
@@ -43305,7 +43291,7 @@
       <c r="DM171"/>
       <c r="DN171"/>
       <c r="DO171" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="DP171"/>
       <c r="DQ171"/>
@@ -43349,7 +43335,7 @@
         <v>197</v>
       </c>
       <c r="B172" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C172" t="n">
         <v>2021</v>
@@ -43387,7 +43373,7 @@
       <c r="X172"/>
       <c r="Y172"/>
       <c r="Z172" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="AA172"/>
       <c r="AB172"/>
@@ -43431,7 +43417,7 @@
         <v>0</v>
       </c>
       <c r="AT172" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="AU172" t="n">
         <v>1</v>
@@ -43559,16 +43545,16 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B173" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C173" t="n">
         <v>2022</v>
       </c>
       <c r="D173" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E173" t="s">
         <v>229</v>
@@ -43774,10 +43760,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B174" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C174" t="n">
         <v>2012</v>
@@ -43859,7 +43845,7 @@
         <v>0</v>
       </c>
       <c r="AT174" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="AU174" t="n">
         <v>0</v>
@@ -43987,22 +43973,22 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B175" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="C175" t="n">
         <v>2021</v>
       </c>
       <c r="D175" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E175" t="s">
         <v>155</v>
       </c>
       <c r="F175" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G175"/>
       <c r="H175"/>
@@ -44074,7 +44060,7 @@
         <v>0</v>
       </c>
       <c r="AT175" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="AU175" t="n">
         <v>1</v>
@@ -44196,7 +44182,7 @@
       <c r="EB175"/>
       <c r="EC175"/>
       <c r="ED175" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="EE175"/>
       <c r="EF175"/>
@@ -44217,7 +44203,7 @@
       <c r="EQ175"/>
       <c r="ER175"/>
       <c r="ES175" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="ET175"/>
       <c r="EU175"/>
@@ -44226,10 +44212,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B176" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C176" t="n">
         <v>2022</v>
@@ -44393,7 +44379,7 @@
       <c r="CX176"/>
       <c r="CY176"/>
       <c r="CZ176" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DA176"/>
       <c r="DB176"/>
@@ -44414,7 +44400,7 @@
       <c r="DM176"/>
       <c r="DN176"/>
       <c r="DO176" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="DP176"/>
       <c r="DQ176"/>
@@ -44435,7 +44421,7 @@
       <c r="EB176"/>
       <c r="EC176"/>
       <c r="ED176" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="EE176"/>
       <c r="EF176"/>
@@ -44461,10 +44447,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B177" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C177" t="n">
         <v>2018</v>
@@ -44544,7 +44530,7 @@
         <v>0</v>
       </c>
       <c r="AT177" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="AU177" t="n">
         <v>1</v>
@@ -44582,10 +44568,10 @@
       <c r="BJ177"/>
       <c r="BK177"/>
       <c r="BL177" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="BM177" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="BN177"/>
       <c r="BO177"/>
@@ -44635,7 +44621,7 @@
       <c r="DC177"/>
       <c r="DD177"/>
       <c r="DE177" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="DF177"/>
       <c r="DG177"/>
@@ -44649,7 +44635,7 @@
       <c r="DM177"/>
       <c r="DN177"/>
       <c r="DO177" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="DP177"/>
       <c r="DQ177"/>
@@ -44696,16 +44682,16 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B178" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C178" t="n">
         <v>2007</v>
       </c>
       <c r="D178" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E178" t="s">
         <v>155</v>
@@ -44783,7 +44769,7 @@
         <v>0</v>
       </c>
       <c r="AT178" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="AU178" t="n">
         <v>1</v>
@@ -44884,7 +44870,7 @@
       <c r="DM178"/>
       <c r="DN178"/>
       <c r="DO178" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="DP178"/>
       <c r="DQ178"/>
@@ -44925,10 +44911,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B179" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C179" t="n">
         <v>2003</v>
@@ -45008,7 +44994,7 @@
         <v>0</v>
       </c>
       <c r="AT179" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="AU179" t="n">
         <v>0</v>
@@ -45136,10 +45122,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B180" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C180" t="n">
         <v>2011</v>
@@ -45188,10 +45174,10 @@
       <c r="AC180"/>
       <c r="AD180"/>
       <c r="AE180" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AF180" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AG180"/>
       <c r="AH180"/>
@@ -45227,7 +45213,7 @@
         <v>0</v>
       </c>
       <c r="AT180" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="AU180" t="n">
         <v>1</v>
@@ -45267,10 +45253,10 @@
       <c r="BJ180"/>
       <c r="BK180"/>
       <c r="BL180" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="BM180" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="BN180"/>
       <c r="BO180"/>
@@ -45284,7 +45270,7 @@
       <c r="BW180"/>
       <c r="BX180"/>
       <c r="BY180" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="BZ180" t="s">
         <v>260</v>
@@ -45324,7 +45310,7 @@
       <c r="DC180"/>
       <c r="DD180"/>
       <c r="DE180" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF180"/>
       <c r="DG180"/>
@@ -45338,7 +45324,7 @@
       <c r="DM180"/>
       <c r="DN180"/>
       <c r="DO180" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="DP180"/>
       <c r="DQ180"/>
@@ -45359,7 +45345,7 @@
       <c r="EB180"/>
       <c r="EC180"/>
       <c r="ED180" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="EE180"/>
       <c r="EF180"/>
@@ -45383,10 +45369,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B181" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="C181" t="n">
         <v>2018</v>
@@ -45396,7 +45382,7 @@
         <v>155</v>
       </c>
       <c r="F181" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G181"/>
       <c r="H181"/>
@@ -45417,7 +45403,7 @@
       <c r="S181"/>
       <c r="T181"/>
       <c r="U181" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="V181"/>
       <c r="W181"/>
@@ -45468,7 +45454,7 @@
         <v>0</v>
       </c>
       <c r="AT181" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="AU181" t="n">
         <v>0</v>
@@ -45596,10 +45582,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B182" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C182" t="n">
         <v>2021</v>
@@ -45630,7 +45616,7 @@
       <c r="S182"/>
       <c r="T182"/>
       <c r="U182" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="V182"/>
       <c r="W182"/>
@@ -45829,10 +45815,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B183" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C183" t="n">
         <v>2016</v>
@@ -45914,7 +45900,7 @@
         <v>0</v>
       </c>
       <c r="AT183" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="AU183" t="n">
         <v>1</v>
@@ -46017,7 +46003,7 @@
       <c r="DM183"/>
       <c r="DN183"/>
       <c r="DO183" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="DP183"/>
       <c r="DQ183"/>
@@ -46038,7 +46024,7 @@
       <c r="EB183"/>
       <c r="EC183"/>
       <c r="ED183" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="EE183"/>
       <c r="EF183"/>
@@ -46064,16 +46050,16 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B184" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="C184" t="n">
         <v>2021</v>
       </c>
       <c r="D184" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E184" t="s">
         <v>155</v>
@@ -46149,7 +46135,7 @@
         <v>0</v>
       </c>
       <c r="AT184" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="AU184" t="n">
         <v>1</v>
@@ -46271,7 +46257,7 @@
       <c r="EB184"/>
       <c r="EC184"/>
       <c r="ED184" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="EE184"/>
       <c r="EF184"/>
@@ -46295,10 +46281,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B185" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C185" t="n">
         <v>2016</v>
@@ -46378,7 +46364,7 @@
         <v>0</v>
       </c>
       <c r="AT185" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="AU185" t="n">
         <v>1</v>
@@ -46467,7 +46453,7 @@
       <c r="DC185"/>
       <c r="DD185"/>
       <c r="DE185" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF185"/>
       <c r="DG185"/>
@@ -46524,10 +46510,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="B186" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C186" t="n">
         <v>2016</v>
@@ -46609,7 +46595,7 @@
         <v>0</v>
       </c>
       <c r="AT186" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="AU186" t="n">
         <v>1</v>
@@ -46698,14 +46684,14 @@
       <c r="DC186"/>
       <c r="DD186"/>
       <c r="DE186" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DF186"/>
       <c r="DG186"/>
       <c r="DH186"/>
       <c r="DI186"/>
       <c r="DJ186" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="DK186"/>
       <c r="DL186"/>
@@ -46733,7 +46719,7 @@
       <c r="EB186"/>
       <c r="EC186"/>
       <c r="ED186" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="EE186"/>
       <c r="EF186"/>
@@ -46754,7 +46740,7 @@
       <c r="EQ186"/>
       <c r="ER186"/>
       <c r="ES186" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="ET186"/>
       <c r="EU186"/>
@@ -46763,10 +46749,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B187" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="C187" t="n">
         <v>2010</v>
@@ -46797,7 +46783,7 @@
       <c r="S187"/>
       <c r="T187"/>
       <c r="U187" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="V187"/>
       <c r="W187"/>
@@ -46886,7 +46872,7 @@
       <c r="BJ187"/>
       <c r="BK187"/>
       <c r="BL187" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="BM187"/>
       <c r="BN187"/>
@@ -46937,7 +46923,7 @@
       <c r="DC187"/>
       <c r="DD187"/>
       <c r="DE187" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF187"/>
       <c r="DG187"/>
@@ -46951,7 +46937,7 @@
       <c r="DM187"/>
       <c r="DN187"/>
       <c r="DO187" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="DP187"/>
       <c r="DQ187"/>
@@ -46970,7 +46956,7 @@
       <c r="EB187"/>
       <c r="EC187"/>
       <c r="ED187" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="EE187"/>
       <c r="EF187"/>
@@ -47000,10 +46986,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B188" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C188" t="n">
         <v>2005</v>
@@ -47083,7 +47069,7 @@
         <v>0</v>
       </c>
       <c r="AT188" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="AU188" t="n">
         <v>0</v>
@@ -47205,7 +47191,7 @@
       <c r="EB188"/>
       <c r="EC188"/>
       <c r="ED188" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="EE188"/>
       <c r="EF188"/>
@@ -47231,10 +47217,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B189" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C189" t="n">
         <v>2013</v>
@@ -47314,7 +47300,7 @@
         <v>0</v>
       </c>
       <c r="AT189" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AU189" t="n">
         <v>0</v>
@@ -47415,7 +47401,7 @@
       <c r="DM189"/>
       <c r="DN189"/>
       <c r="DO189" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="DP189"/>
       <c r="DQ189"/>
@@ -47436,7 +47422,7 @@
       <c r="EB189"/>
       <c r="EC189"/>
       <c r="ED189" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="EE189"/>
       <c r="EF189"/>
@@ -47462,16 +47448,16 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B190" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C190" t="n">
         <v>2008</v>
       </c>
       <c r="D190" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E190" t="s">
         <v>155</v>
@@ -47547,7 +47533,7 @@
         <v>0</v>
       </c>
       <c r="AT190" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="AU190" t="n">
         <v>1</v>
@@ -47636,7 +47622,7 @@
       <c r="DC190"/>
       <c r="DD190"/>
       <c r="DE190" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF190"/>
       <c r="DG190"/>
@@ -47669,7 +47655,7 @@
       <c r="EB190"/>
       <c r="EC190"/>
       <c r="ED190" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="EE190"/>
       <c r="EF190"/>
@@ -47695,22 +47681,22 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B191" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="C191" t="n">
         <v>2022</v>
       </c>
       <c r="D191" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E191" t="s">
         <v>155</v>
       </c>
       <c r="F191" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G191"/>
       <c r="H191"/>
@@ -47782,7 +47768,7 @@
         <v>0</v>
       </c>
       <c r="AT191" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="AU191" t="n">
         <v>1</v>
@@ -47910,10 +47896,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B192" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="C192" t="n">
         <v>2015</v>
@@ -47995,7 +47981,7 @@
         <v>0</v>
       </c>
       <c r="AT192" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="AU192" t="n">
         <v>0</v>
@@ -48137,10 +48123,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B193" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C193" t="n">
         <v>2023</v>
@@ -48325,7 +48311,7 @@
       <c r="DM193"/>
       <c r="DN193"/>
       <c r="DO193" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="DP193"/>
       <c r="DQ193"/>
@@ -48372,22 +48358,22 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B194" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C194" t="n">
         <v>2018</v>
       </c>
       <c r="D194" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E194" t="s">
         <v>155</v>
       </c>
       <c r="F194" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G194"/>
       <c r="H194"/>
@@ -48459,7 +48445,7 @@
         <v>0</v>
       </c>
       <c r="AT194" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="AU194" t="n">
         <v>0</v>
@@ -48490,23 +48476,23 @@
       <c r="BE194"/>
       <c r="BF194"/>
       <c r="BG194" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH194"/>
       <c r="BI194"/>
       <c r="BJ194"/>
       <c r="BK194"/>
       <c r="BL194" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="BM194" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="BN194" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="BO194" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="BP194"/>
       <c r="BQ194"/>
@@ -48554,7 +48540,7 @@
       <c r="DC194"/>
       <c r="DD194"/>
       <c r="DE194" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="DF194"/>
       <c r="DG194"/>
@@ -48568,7 +48554,7 @@
       <c r="DM194"/>
       <c r="DN194"/>
       <c r="DO194" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="DP194"/>
       <c r="DQ194"/>
@@ -48589,7 +48575,7 @@
       <c r="EB194"/>
       <c r="EC194"/>
       <c r="ED194" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="EE194"/>
       <c r="EF194"/>
@@ -48610,7 +48596,7 @@
       <c r="EQ194"/>
       <c r="ER194"/>
       <c r="ES194" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="ET194"/>
       <c r="EU194"/>
@@ -48619,10 +48605,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B195" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C195" t="n">
         <v>2020</v>
@@ -48658,7 +48644,7 @@
       <c r="X195"/>
       <c r="Y195"/>
       <c r="Z195" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="AA195"/>
       <c r="AB195"/>
@@ -48702,7 +48688,7 @@
         <v>0</v>
       </c>
       <c r="AT195" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="AU195" t="n">
         <v>1</v>
@@ -48830,10 +48816,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B196" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C196" t="n">
         <v>2005</v>
@@ -48939,7 +48925,7 @@
         <v>0</v>
       </c>
       <c r="AT196" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AU196" t="n">
         <v>1</v>
@@ -49071,16 +49057,16 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B197" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C197" t="n">
         <v>2016</v>
       </c>
       <c r="D197" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="E197" t="s">
         <v>155</v>
@@ -49286,10 +49272,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B198" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C198" t="n">
         <v>2013</v>
@@ -49371,7 +49357,7 @@
         <v>0</v>
       </c>
       <c r="AT198" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="AU198" t="n">
         <v>1</v>
@@ -49402,17 +49388,17 @@
       <c r="BE198"/>
       <c r="BF198"/>
       <c r="BG198" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH198"/>
       <c r="BI198"/>
       <c r="BJ198"/>
       <c r="BK198"/>
       <c r="BL198" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="BM198" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="BN198"/>
       <c r="BO198"/>
@@ -49474,7 +49460,7 @@
       <c r="DM198"/>
       <c r="DN198"/>
       <c r="DO198" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="DP198"/>
       <c r="DQ198"/>
@@ -49515,10 +49501,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="B199" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C199" t="n">
         <v>2004</v>
@@ -49528,14 +49514,14 @@
         <v>155</v>
       </c>
       <c r="F199" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G199"/>
       <c r="H199"/>
       <c r="I199"/>
       <c r="J199"/>
       <c r="K199" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="L199"/>
       <c r="M199"/>
@@ -49600,7 +49586,7 @@
         <v>0</v>
       </c>
       <c r="AT199" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AU199" t="n">
         <v>1</v>
@@ -49641,7 +49627,7 @@
         <v>271</v>
       </c>
       <c r="BM199" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="BN199"/>
       <c r="BO199"/>
@@ -49703,7 +49689,7 @@
       <c r="DM199"/>
       <c r="DN199"/>
       <c r="DO199" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="DP199"/>
       <c r="DQ199"/>
@@ -49724,7 +49710,7 @@
       <c r="EB199"/>
       <c r="EC199"/>
       <c r="ED199" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="EE199"/>
       <c r="EF199"/>
@@ -49745,7 +49731,7 @@
       <c r="EQ199"/>
       <c r="ER199"/>
       <c r="ES199" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="ET199"/>
       <c r="EU199"/>
@@ -49754,10 +49740,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B200" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C200" t="n">
         <v>2021</v>
@@ -49839,7 +49825,7 @@
         <v>0</v>
       </c>
       <c r="AT200" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="AU200" t="n">
         <v>1</v>
@@ -49940,7 +49926,7 @@
       <c r="DM200"/>
       <c r="DN200"/>
       <c r="DO200" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="DP200"/>
       <c r="DQ200"/>
@@ -49981,10 +49967,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B201" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C201" t="n">
         <v>2004</v>
@@ -50064,7 +50050,7 @@
         <v>0</v>
       </c>
       <c r="AT201" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="AU201" t="n">
         <v>1</v>
@@ -50192,10 +50178,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B202" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C202" t="n">
         <v>2016</v>
@@ -50348,22 +50334,22 @@
         <v>1</v>
       </c>
       <c r="BG202" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH202" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BI202" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BJ202" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BK202" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BL202" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="BM202"/>
       <c r="BN202"/>
@@ -50374,16 +50360,16 @@
       <c r="BS202"/>
       <c r="BT202"/>
       <c r="BU202" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="BV202" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="BW202" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="BX202" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="BY202"/>
       <c r="BZ202"/>
@@ -50503,7 +50489,7 @@
         <v>0.51</v>
       </c>
       <c r="ED202" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="EE202" t="n">
         <v>61.8</v>
@@ -50545,10 +50531,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="B203" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C203" t="n">
         <v>2021</v>
@@ -50628,7 +50614,7 @@
         <v>0</v>
       </c>
       <c r="AT203" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AU203" t="n">
         <v>1</v>
@@ -50756,10 +50742,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B204" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C204" t="n">
         <v>2021</v>
@@ -50790,7 +50776,7 @@
       <c r="S204"/>
       <c r="T204"/>
       <c r="U204" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="V204"/>
       <c r="W204"/>
@@ -50841,7 +50827,7 @@
         <v>0</v>
       </c>
       <c r="AT204" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="AU204" t="n">
         <v>1</v>
@@ -50879,7 +50865,7 @@
       <c r="BJ204"/>
       <c r="BK204"/>
       <c r="BL204" t="s">
-        <v>360</v>
+        <v>954</v>
       </c>
       <c r="BM204"/>
       <c r="BN204"/>
@@ -50923,7 +50909,7 @@
       <c r="CX204"/>
       <c r="CY204"/>
       <c r="CZ204" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="DA204"/>
       <c r="DB204"/>
@@ -50944,7 +50930,7 @@
       <c r="DM204"/>
       <c r="DN204"/>
       <c r="DO204" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="DP204"/>
       <c r="DQ204"/>
@@ -50987,10 +50973,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B205" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C205" t="n">
         <v>2020</v>
@@ -51072,7 +51058,7 @@
         <v>0</v>
       </c>
       <c r="AT205" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AU205" t="n">
         <v>0</v>
@@ -51173,7 +51159,7 @@
       <c r="DM205"/>
       <c r="DN205"/>
       <c r="DO205" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="DP205"/>
       <c r="DQ205"/>
@@ -51218,10 +51204,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B206" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C206" t="n">
         <v>2003</v>
@@ -51250,7 +51236,7 @@
       <c r="S206"/>
       <c r="T206"/>
       <c r="U206" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V206"/>
       <c r="W206"/>
@@ -51339,7 +51325,7 @@
       <c r="BJ206"/>
       <c r="BK206"/>
       <c r="BL206" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="BM206"/>
       <c r="BN206"/>
@@ -51421,7 +51407,7 @@
       <c r="EB206"/>
       <c r="EC206"/>
       <c r="ED206" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="EE206"/>
       <c r="EF206"/>
@@ -51442,7 +51428,7 @@
       <c r="EQ206"/>
       <c r="ER206"/>
       <c r="ES206" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="ET206"/>
       <c r="EU206"/>
@@ -51451,16 +51437,16 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B207" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C207" t="n">
         <v>2022</v>
       </c>
       <c r="D207" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E207" t="s">
         <v>155</v>
@@ -51635,7 +51621,7 @@
       <c r="DM207"/>
       <c r="DN207"/>
       <c r="DO207" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="DP207"/>
       <c r="DQ207"/>
@@ -51656,7 +51642,7 @@
       <c r="EB207"/>
       <c r="EC207"/>
       <c r="ED207" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="EE207"/>
       <c r="EF207"/>
@@ -51677,7 +51663,7 @@
       <c r="EQ207"/>
       <c r="ER207"/>
       <c r="ES207" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="ET207"/>
       <c r="EU207"/>
@@ -51686,16 +51672,16 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B208" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C208" t="n">
         <v>2022</v>
       </c>
       <c r="D208" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E208" t="s">
         <v>155</v>
@@ -51722,7 +51708,7 @@
       <c r="S208"/>
       <c r="T208"/>
       <c r="U208" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="V208"/>
       <c r="W208"/>
@@ -51773,7 +51759,7 @@
         <v>0</v>
       </c>
       <c r="AT208" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="AU208" t="n">
         <v>1</v>
@@ -51804,30 +51790,18 @@
       <c r="BE208"/>
       <c r="BF208"/>
       <c r="BG208" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH208"/>
       <c r="BI208"/>
       <c r="BJ208"/>
       <c r="BK208"/>
-      <c r="BL208" t="s">
-        <v>920</v>
-      </c>
-      <c r="BM208" t="s">
-        <v>969</v>
-      </c>
-      <c r="BN208" t="s">
-        <v>324</v>
-      </c>
-      <c r="BO208" t="s">
-        <v>970</v>
-      </c>
-      <c r="BP208" t="s">
-        <v>971</v>
-      </c>
-      <c r="BQ208" t="s">
-        <v>604</v>
-      </c>
+      <c r="BL208"/>
+      <c r="BM208"/>
+      <c r="BN208"/>
+      <c r="BO208"/>
+      <c r="BP208"/>
+      <c r="BQ208"/>
       <c r="BR208"/>
       <c r="BS208"/>
       <c r="BT208"/>
@@ -51884,7 +51858,7 @@
       <c r="DM208"/>
       <c r="DN208"/>
       <c r="DO208" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="DP208"/>
       <c r="DQ208"/>
@@ -51905,7 +51879,7 @@
       <c r="EB208"/>
       <c r="EC208"/>
       <c r="ED208" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="EE208"/>
       <c r="EF208"/>
@@ -51931,10 +51905,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B209" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C209" t="n">
         <v>2021</v>
@@ -51971,7 +51945,7 @@
       <c r="S209"/>
       <c r="T209"/>
       <c r="U209" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="V209"/>
       <c r="W209"/>
@@ -52026,7 +52000,7 @@
         <v>0</v>
       </c>
       <c r="AT209" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="AU209" t="n">
         <v>0</v>
@@ -52125,10 +52099,10 @@
       <c r="DC209"/>
       <c r="DD209"/>
       <c r="DE209" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="DF209" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="DG209"/>
       <c r="DH209"/>
@@ -52170,7 +52144,7 @@
       <c r="EB209"/>
       <c r="EC209"/>
       <c r="ED209" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="EE209" t="n">
         <v>59.7</v>
@@ -52196,10 +52170,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B210" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C210" t="n">
         <v>2019</v>
@@ -52230,7 +52204,7 @@
       <c r="S210"/>
       <c r="T210"/>
       <c r="U210" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="V210"/>
       <c r="W210"/>
@@ -52332,10 +52306,10 @@
       <c r="BW210"/>
       <c r="BX210"/>
       <c r="BY210" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="BZ210" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="CA210"/>
       <c r="CB210"/>
@@ -52386,7 +52360,7 @@
       <c r="DM210"/>
       <c r="DN210"/>
       <c r="DO210" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="DP210"/>
       <c r="DQ210"/>
@@ -52429,16 +52403,16 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B211" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C211" t="n">
         <v>2015</v>
       </c>
       <c r="D211" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="E211" t="s">
         <v>155</v>
@@ -52516,7 +52490,7 @@
         <v>0</v>
       </c>
       <c r="AT211" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="AU211" t="n">
         <v>1</v>
@@ -52644,10 +52618,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B212" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C212" t="n">
         <v>2022</v>
@@ -52690,7 +52664,7 @@
       <c r="S212"/>
       <c r="T212"/>
       <c r="U212" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="V212"/>
       <c r="W212" t="n">
@@ -52751,7 +52725,7 @@
         <v>0</v>
       </c>
       <c r="AT212" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="AU212" t="n">
         <v>0</v>
@@ -52860,13 +52834,13 @@
       <c r="DC212"/>
       <c r="DD212"/>
       <c r="DE212" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="DF212" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="DG212" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="DH212"/>
       <c r="DI212"/>
@@ -52915,7 +52889,7 @@
       <c r="EB212"/>
       <c r="EC212"/>
       <c r="ED212" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="EE212" t="n">
         <v>63.3</v>
@@ -52943,10 +52917,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="B213" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C213" t="n">
         <v>2012</v>
@@ -53028,7 +53002,7 @@
         <v>0</v>
       </c>
       <c r="AT213" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="AU213" t="n">
         <v>0</v>
@@ -53129,7 +53103,7 @@
       <c r="DM213"/>
       <c r="DN213"/>
       <c r="DO213" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="DP213"/>
       <c r="DQ213"/>
@@ -53170,16 +53144,16 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="B214" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="C214" t="n">
         <v>2021</v>
       </c>
       <c r="D214" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="E214" t="s">
         <v>229</v>
@@ -53377,7 +53351,7 @@
       <c r="EB214"/>
       <c r="EC214"/>
       <c r="ED214" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="EE214"/>
       <c r="EF214"/>
@@ -53403,10 +53377,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="B215" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C215" t="n">
         <v>2018</v>
@@ -53488,7 +53462,7 @@
         <v>0</v>
       </c>
       <c r="AT215" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="AU215" t="n">
         <v>0</v>
@@ -53616,16 +53590,16 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="B216" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C216" t="n">
         <v>2021</v>
       </c>
       <c r="D216" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="E216" t="s">
         <v>155</v>
@@ -53756,18 +53730,18 @@
       <c r="BE216"/>
       <c r="BF216"/>
       <c r="BG216" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH216" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BI216" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BJ216"/>
       <c r="BK216"/>
       <c r="BL216" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="BM216"/>
       <c r="BN216"/>
@@ -53778,10 +53752,10 @@
       <c r="BS216"/>
       <c r="BT216"/>
       <c r="BU216" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="BV216" t="s">
-        <v>304</v>
+        <v>997</v>
       </c>
       <c r="BW216"/>
       <c r="BX216"/>
@@ -53869,7 +53843,7 @@
       <c r="EB216"/>
       <c r="EC216"/>
       <c r="ED216" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="EE216" t="n">
         <v>33.3</v>
@@ -53902,7 +53876,7 @@
       <c r="EQ216"/>
       <c r="ER216"/>
       <c r="ES216" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="ET216" t="n">
         <v>81</v>
@@ -53915,10 +53889,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B217" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C217" t="n">
         <v>1998</v>
@@ -53949,7 +53923,7 @@
       <c r="S217"/>
       <c r="T217"/>
       <c r="U217" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V217"/>
       <c r="W217"/>
@@ -54053,7 +54027,7 @@
       <c r="BW217"/>
       <c r="BX217"/>
       <c r="BY217" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="BZ217"/>
       <c r="CA217"/>
@@ -54091,7 +54065,7 @@
       <c r="DC217"/>
       <c r="DD217"/>
       <c r="DE217" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF217"/>
       <c r="DG217"/>
@@ -54126,7 +54100,7 @@
       <c r="EB217"/>
       <c r="EC217"/>
       <c r="ED217" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="EE217"/>
       <c r="EF217"/>
@@ -54152,10 +54126,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="B218" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C218" t="n">
         <v>2014</v>
@@ -54342,10 +54316,10 @@
       <c r="DC218"/>
       <c r="DD218"/>
       <c r="DE218" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DF218" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DG218"/>
       <c r="DH218"/>
@@ -54360,10 +54334,10 @@
       <c r="DM218"/>
       <c r="DN218"/>
       <c r="DO218" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="DP218" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="DQ218"/>
       <c r="DR218"/>
@@ -54387,7 +54361,7 @@
       <c r="EB218"/>
       <c r="EC218"/>
       <c r="ED218" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="EE218" t="n">
         <v>44.6</v>
@@ -54410,7 +54384,7 @@
       <c r="EQ218"/>
       <c r="ER218"/>
       <c r="ES218" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="ET218" t="n">
         <v>70</v>
@@ -54421,10 +54395,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="B219" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C219" t="n">
         <v>2001</v>
@@ -54455,7 +54429,7 @@
       <c r="S219"/>
       <c r="T219"/>
       <c r="U219" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V219"/>
       <c r="W219"/>
@@ -54469,7 +54443,7 @@
       <c r="AC219"/>
       <c r="AD219"/>
       <c r="AE219" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AF219"/>
       <c r="AG219"/>
@@ -54506,7 +54480,7 @@
         <v>0</v>
       </c>
       <c r="AT219" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="AU219" t="n">
         <v>1</v>
@@ -54544,7 +54518,7 @@
       <c r="BJ219"/>
       <c r="BK219"/>
       <c r="BL219" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="BM219"/>
       <c r="BN219"/>
@@ -54595,7 +54569,7 @@
       <c r="DC219"/>
       <c r="DD219"/>
       <c r="DE219" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF219"/>
       <c r="DG219"/>
@@ -54630,7 +54604,7 @@
       <c r="EB219"/>
       <c r="EC219"/>
       <c r="ED219" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="EE219"/>
       <c r="EF219"/>
@@ -54651,7 +54625,7 @@
       <c r="EQ219"/>
       <c r="ER219"/>
       <c r="ES219" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="ET219"/>
       <c r="EU219"/>
@@ -54660,10 +54634,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="B220" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C220" t="n">
         <v>2017</v>
@@ -54694,7 +54668,7 @@
       <c r="S220"/>
       <c r="T220"/>
       <c r="U220" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V220"/>
       <c r="W220"/>
@@ -54745,7 +54719,7 @@
         <v>0</v>
       </c>
       <c r="AT220" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="AU220" t="n">
         <v>1</v>
@@ -54834,7 +54808,7 @@
       <c r="DC220"/>
       <c r="DD220"/>
       <c r="DE220" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DF220"/>
       <c r="DG220"/>
@@ -54848,7 +54822,7 @@
       <c r="DM220"/>
       <c r="DN220"/>
       <c r="DO220" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="DP220"/>
       <c r="DQ220"/>
@@ -54869,7 +54843,7 @@
       <c r="EB220"/>
       <c r="EC220"/>
       <c r="ED220" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="EE220"/>
       <c r="EF220"/>
@@ -54890,7 +54864,7 @@
       <c r="EQ220"/>
       <c r="ER220"/>
       <c r="ES220" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="ET220"/>
       <c r="EU220"/>
@@ -54899,10 +54873,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="B221" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="C221" t="n">
         <v>2006</v>
@@ -55022,10 +54996,10 @@
       <c r="BJ221"/>
       <c r="BK221"/>
       <c r="BL221" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="BM221" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="BN221" t="s">
         <v>236</v>
@@ -55110,7 +55084,7 @@
       <c r="EB221"/>
       <c r="EC221"/>
       <c r="ED221" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="EE221"/>
       <c r="EF221"/>
@@ -55134,10 +55108,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="B222" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C222" t="n">
         <v>2017</v>
@@ -55219,7 +55193,7 @@
         <v>0</v>
       </c>
       <c r="AT222" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="AU222" t="n">
         <v>0</v>
@@ -55250,14 +55224,14 @@
       <c r="BE222"/>
       <c r="BF222"/>
       <c r="BG222" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH222"/>
       <c r="BI222"/>
       <c r="BJ222"/>
       <c r="BK222"/>
       <c r="BL222" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="BM222"/>
       <c r="BN222"/>
@@ -55308,7 +55282,7 @@
       <c r="DC222"/>
       <c r="DD222"/>
       <c r="DE222" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF222"/>
       <c r="DG222"/>
@@ -55322,7 +55296,7 @@
       <c r="DM222"/>
       <c r="DN222"/>
       <c r="DO222" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="DP222"/>
       <c r="DQ222"/>
@@ -55343,7 +55317,7 @@
       <c r="EB222"/>
       <c r="EC222"/>
       <c r="ED222" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="EE222"/>
       <c r="EF222"/>
@@ -55364,7 +55338,7 @@
       <c r="EQ222"/>
       <c r="ER222"/>
       <c r="ES222" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="ET222"/>
       <c r="EU222"/>
@@ -55373,10 +55347,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="B223" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C223" t="n">
         <v>2021</v>
@@ -55600,10 +55574,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="B224" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C224" t="n">
         <v>2020</v>
@@ -55683,7 +55657,7 @@
         <v>0</v>
       </c>
       <c r="AT224" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="AU224" t="n">
         <v>1</v>
@@ -55811,10 +55785,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B225" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C225" t="n">
         <v>2017</v>
@@ -55845,7 +55819,7 @@
       <c r="S225"/>
       <c r="T225"/>
       <c r="U225" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="V225"/>
       <c r="W225"/>
@@ -55896,7 +55870,7 @@
         <v>0</v>
       </c>
       <c r="AT225" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="AU225" t="n">
         <v>0</v>
@@ -55997,7 +55971,7 @@
       <c r="DM225"/>
       <c r="DN225"/>
       <c r="DO225" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="DP225"/>
       <c r="DQ225"/>
@@ -56018,7 +55992,7 @@
       <c r="EB225"/>
       <c r="EC225"/>
       <c r="ED225" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="EE225"/>
       <c r="EF225"/>
@@ -56039,7 +56013,7 @@
       <c r="EQ225"/>
       <c r="ER225"/>
       <c r="ES225" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="ET225"/>
       <c r="EU225"/>
@@ -56048,10 +56022,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B226" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C226" t="n">
         <v>2022</v>
@@ -56133,7 +56107,7 @@
         <v>0</v>
       </c>
       <c r="AT226" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="AU226" t="n">
         <v>1</v>
@@ -56227,7 +56201,7 @@
       <c r="DH226"/>
       <c r="DI226"/>
       <c r="DJ226" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="DK226"/>
       <c r="DL226"/>
@@ -56253,7 +56227,7 @@
       <c r="EB226"/>
       <c r="EC226"/>
       <c r="ED226" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="EE226"/>
       <c r="EF226"/>
@@ -56274,7 +56248,7 @@
       <c r="EQ226"/>
       <c r="ER226"/>
       <c r="ES226" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="ET226"/>
       <c r="EU226"/>
@@ -56283,10 +56257,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="B227" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="C227" t="n">
         <v>2008</v>
@@ -56368,7 +56342,7 @@
         <v>0</v>
       </c>
       <c r="AT227" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="AU227" t="n">
         <v>1</v>
@@ -56399,14 +56373,14 @@
       <c r="BE227"/>
       <c r="BF227"/>
       <c r="BG227" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH227"/>
       <c r="BI227"/>
       <c r="BJ227"/>
       <c r="BK227"/>
       <c r="BL227" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="BM227"/>
       <c r="BN227"/>
@@ -56490,7 +56464,7 @@
       <c r="EB227"/>
       <c r="EC227"/>
       <c r="ED227" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="EE227"/>
       <c r="EF227"/>
@@ -56511,7 +56485,7 @@
       <c r="EQ227"/>
       <c r="ER227"/>
       <c r="ES227" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="ET227"/>
       <c r="EU227"/>
@@ -56520,10 +56494,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="B228" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C228" t="n">
         <v>2022</v>
@@ -56638,20 +56612,20 @@
       <c r="BE228"/>
       <c r="BF228"/>
       <c r="BG228" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH228"/>
       <c r="BI228"/>
       <c r="BJ228"/>
       <c r="BK228"/>
       <c r="BL228" t="s">
-        <v>969</v>
+        <v>1046</v>
       </c>
       <c r="BM228" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="BN228" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="BO228"/>
       <c r="BP228"/>
@@ -56700,7 +56674,7 @@
       <c r="DC228"/>
       <c r="DD228"/>
       <c r="DE228" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF228"/>
       <c r="DG228"/>
@@ -56714,7 +56688,7 @@
       <c r="DM228"/>
       <c r="DN228"/>
       <c r="DO228" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="DP228"/>
       <c r="DQ228"/>
@@ -56757,10 +56731,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B229" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C229" t="n">
         <v>2015</v>
@@ -56842,7 +56816,7 @@
         <v>0</v>
       </c>
       <c r="AT229" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="AU229" t="n">
         <v>1</v>
@@ -56931,7 +56905,7 @@
       <c r="DC229"/>
       <c r="DD229"/>
       <c r="DE229" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF229"/>
       <c r="DG229"/>
@@ -56966,7 +56940,7 @@
       <c r="EB229"/>
       <c r="EC229"/>
       <c r="ED229" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="EE229"/>
       <c r="EF229"/>
@@ -56994,10 +56968,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B230" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C230" t="n">
         <v>2021</v>
@@ -57079,7 +57053,7 @@
         <v>0</v>
       </c>
       <c r="AT230" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AU230" t="n">
         <v>1</v>
@@ -57207,10 +57181,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="B231" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C231" t="n">
         <v>2020</v>
@@ -57292,7 +57266,7 @@
         <v>0</v>
       </c>
       <c r="AT231" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="AU231" t="n">
         <v>1</v>
@@ -57391,7 +57365,7 @@
       <c r="DM231"/>
       <c r="DN231"/>
       <c r="DO231" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="DP231"/>
       <c r="DQ231"/>
@@ -57436,16 +57410,16 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B232" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C232" t="n">
         <v>2021</v>
       </c>
       <c r="D232" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="E232" t="s">
         <v>229</v>
@@ -57651,10 +57625,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B233" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C233" t="n">
         <v>2021</v>
@@ -57736,7 +57710,7 @@
         <v>0</v>
       </c>
       <c r="AT233" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="AU233" t="n">
         <v>1</v>
@@ -57864,10 +57838,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B234" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C234" t="n">
         <v>2011</v>
@@ -57898,7 +57872,7 @@
       <c r="S234"/>
       <c r="T234"/>
       <c r="U234" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V234"/>
       <c r="W234"/>
@@ -57949,7 +57923,7 @@
         <v>0</v>
       </c>
       <c r="AT234" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="AU234" t="n">
         <v>1</v>
@@ -58038,7 +58012,7 @@
       <c r="DC234"/>
       <c r="DD234"/>
       <c r="DE234" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DF234"/>
       <c r="DG234"/>
@@ -58071,7 +58045,7 @@
       <c r="EB234"/>
       <c r="EC234"/>
       <c r="ED234" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="EE234"/>
       <c r="EF234"/>
@@ -58097,10 +58071,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B235" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C235" t="n">
         <v>2018</v>
@@ -58180,7 +58154,7 @@
         <v>0</v>
       </c>
       <c r="AT235" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="AU235" t="n">
         <v>1</v>
@@ -58211,7 +58185,7 @@
       <c r="BE235"/>
       <c r="BF235"/>
       <c r="BG235" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BH235"/>
       <c r="BI235"/>
@@ -58231,7 +58205,7 @@
       <c r="BW235"/>
       <c r="BX235"/>
       <c r="BY235" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="BZ235"/>
       <c r="CA235"/>
@@ -58317,7 +58291,7 @@
       <c r="EQ235"/>
       <c r="ER235"/>
       <c r="ES235" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="ET235"/>
       <c r="EU235"/>
@@ -58326,10 +58300,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B236" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="C236" t="n">
         <v>2020</v>
@@ -58551,16 +58525,16 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B237" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C237" t="n">
         <v>2022</v>
       </c>
       <c r="D237" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="E237" t="s">
         <v>155</v>
@@ -58638,7 +58612,7 @@
         <v>0</v>
       </c>
       <c r="AT237" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="AU237" t="n">
         <v>1</v>
@@ -58766,10 +58740,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B238" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C238" t="n">
         <v>2020</v>
@@ -58800,7 +58774,7 @@
       <c r="S238"/>
       <c r="T238"/>
       <c r="U238" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="V238"/>
       <c r="W238"/>
@@ -58889,7 +58863,7 @@
       <c r="BJ238"/>
       <c r="BK238"/>
       <c r="BL238" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="BM238"/>
       <c r="BN238"/>
@@ -58995,10 +58969,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="B239" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C239" t="n">
         <v>2021</v>
@@ -59045,7 +59019,7 @@
       <c r="AC239"/>
       <c r="AD239"/>
       <c r="AE239" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AF239"/>
       <c r="AG239"/>
@@ -59082,7 +59056,7 @@
         <v>0</v>
       </c>
       <c r="AT239" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="AU239" t="n">
         <v>1</v>
@@ -59120,7 +59094,7 @@
       <c r="BJ239"/>
       <c r="BK239"/>
       <c r="BL239" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="BM239"/>
       <c r="BN239"/>
@@ -59171,7 +59145,7 @@
       <c r="DC239"/>
       <c r="DD239"/>
       <c r="DE239" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="DF239"/>
       <c r="DG239"/>
@@ -59206,7 +59180,7 @@
       <c r="EB239"/>
       <c r="EC239"/>
       <c r="ED239" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="EE239"/>
       <c r="EF239"/>
@@ -59232,10 +59206,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B240" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C240" t="n">
         <v>2018</v>
@@ -59438,10 +59412,10 @@
       <c r="DM240"/>
       <c r="DN240"/>
       <c r="DO240" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="DP240" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="DQ240"/>
       <c r="DR240"/>
@@ -59465,7 +59439,7 @@
       <c r="EB240"/>
       <c r="EC240"/>
       <c r="ED240" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="EE240" t="n">
         <v>45.96</v>
@@ -59492,7 +59466,7 @@
       <c r="EQ240"/>
       <c r="ER240"/>
       <c r="ES240" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="ET240" t="n">
         <v>66</v>
@@ -59503,10 +59477,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B241" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C241" t="n">
         <v>2003</v>
@@ -59537,7 +59511,7 @@
       <c r="S241"/>
       <c r="T241"/>
       <c r="U241" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="V241"/>
       <c r="W241"/>
@@ -59588,7 +59562,7 @@
         <v>0</v>
       </c>
       <c r="AT241" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AU241" t="n">
         <v>1</v>
@@ -59626,10 +59600,10 @@
       <c r="BJ241"/>
       <c r="BK241"/>
       <c r="BL241" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="BM241" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="BN241"/>
       <c r="BO241"/>
@@ -59679,7 +59653,7 @@
       <c r="DC241"/>
       <c r="DD241"/>
       <c r="DE241" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="DF241"/>
       <c r="DG241"/>
@@ -59714,7 +59688,7 @@
       <c r="EB241"/>
       <c r="EC241"/>
       <c r="ED241" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="EE241"/>
       <c r="EF241"/>
@@ -59740,10 +59714,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B242" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C242" t="n">
         <v>2021</v>
@@ -59796,10 +59770,10 @@
       <c r="AC242"/>
       <c r="AD242"/>
       <c r="AE242" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AF242" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AG242"/>
       <c r="AH242"/>
@@ -59835,7 +59809,7 @@
         <v>0</v>
       </c>
       <c r="AT242" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AU242" t="n">
         <v>1</v>
@@ -59877,10 +59851,10 @@
       <c r="BJ242"/>
       <c r="BK242"/>
       <c r="BL242" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="BM242" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="BN242"/>
       <c r="BO242"/>
@@ -59890,7 +59864,7 @@
       <c r="BS242"/>
       <c r="BT242"/>
       <c r="BU242" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="BV242"/>
       <c r="BW242"/>
@@ -59977,7 +59951,7 @@
       <c r="EB242"/>
       <c r="EC242"/>
       <c r="ED242" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="EE242" t="n">
         <v>37.38</v>
@@ -60004,7 +59978,7 @@
       <c r="EQ242"/>
       <c r="ER242"/>
       <c r="ES242" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="ET242" t="n">
         <v>57</v>
